--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>133.0748443603516</v>
+        <v>132.4609985351562</v>
       </c>
       <c r="H2" t="n">
-        <v>52.60833358764648</v>
+        <v>51.71201705932617</v>
       </c>
       <c r="I2" t="n">
-        <v>895.9722900390625</v>
+        <v>903.2344970703125</v>
       </c>
       <c r="J2" t="n">
-        <v>78.39063262939453</v>
+        <v>77.67316436767578</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>140.5399627685547</v>
+        <v>138.6773681640625</v>
       </c>
       <c r="H3" t="n">
-        <v>49.55883026123047</v>
+        <v>50.24663925170898</v>
       </c>
       <c r="I3" t="n">
-        <v>913.1746826171875</v>
+        <v>910.8515625</v>
       </c>
       <c r="J3" t="n">
-        <v>69.80177307128906</v>
+        <v>72.79878234863281</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5978698730469</v>
+        <v>152.5290374755859</v>
       </c>
       <c r="H4" t="n">
-        <v>46.70365905761719</v>
+        <v>47.03755950927734</v>
       </c>
       <c r="I4" t="n">
-        <v>928.2382202148438</v>
+        <v>929.109375</v>
       </c>
       <c r="J4" t="n">
-        <v>65.81388092041016</v>
+        <v>66.381103515625</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>161.2678375244141</v>
+        <v>162.3445739746094</v>
       </c>
       <c r="H5" t="n">
-        <v>47.92244720458984</v>
+        <v>46.92490386962891</v>
       </c>
       <c r="I5" t="n">
-        <v>943.7542724609375</v>
+        <v>941.9541625976562</v>
       </c>
       <c r="J5" t="n">
-        <v>70.16777801513672</v>
+        <v>69.43345642089844</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9416046142578</v>
+        <v>163.6813049316406</v>
       </c>
       <c r="H6" t="n">
-        <v>45.65964126586914</v>
+        <v>47.40158462524414</v>
       </c>
       <c r="I6" t="n">
-        <v>962.53271484375</v>
+        <v>959.5790405273438</v>
       </c>
       <c r="J6" t="n">
-        <v>66.00922393798828</v>
+        <v>71.29796600341797</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>116.6310958862305</v>
+        <v>112.9238815307617</v>
       </c>
       <c r="H7" t="n">
-        <v>58.97222518920898</v>
+        <v>56.60541534423828</v>
       </c>
       <c r="I7" t="n">
-        <v>846.1099243164062</v>
+        <v>850.7708740234375</v>
       </c>
       <c r="J7" t="n">
-        <v>122.5250701904297</v>
+        <v>124.4343032836914</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3972396850586</v>
+        <v>121.502326965332</v>
       </c>
       <c r="H8" t="n">
-        <v>54.33182525634766</v>
+        <v>52.95067977905273</v>
       </c>
       <c r="I8" t="n">
-        <v>933.0023803710938</v>
+        <v>934.4193725585938</v>
       </c>
       <c r="J8" t="n">
-        <v>81.47201538085938</v>
+        <v>82.32551574707031</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>127.9342346191406</v>
+        <v>130.9476928710938</v>
       </c>
       <c r="H9" t="n">
-        <v>51.63263702392578</v>
+        <v>51.45252990722656</v>
       </c>
       <c r="I9" t="n">
-        <v>950.2098999023438</v>
+        <v>950.3185424804688</v>
       </c>
       <c r="J9" t="n">
-        <v>70.697265625</v>
+        <v>71.49295806884766</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>140.8838195800781</v>
+        <v>143.5145111083984</v>
       </c>
       <c r="H10" t="n">
-        <v>46.13038635253906</v>
+        <v>47.9832763671875</v>
       </c>
       <c r="I10" t="n">
-        <v>960.767822265625</v>
+        <v>963.8599853515625</v>
       </c>
       <c r="J10" t="n">
-        <v>66.70946502685547</v>
+        <v>66.45746612548828</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>151.8140563964844</v>
+        <v>151.6259918212891</v>
       </c>
       <c r="H11" t="n">
-        <v>45.61778259277344</v>
+        <v>44.67057418823242</v>
       </c>
       <c r="I11" t="n">
-        <v>971.6507568359375</v>
+        <v>969.4116821289062</v>
       </c>
       <c r="J11" t="n">
-        <v>67.80869293212891</v>
+        <v>67.28739166259766</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>155.5323181152344</v>
+        <v>157.5667114257812</v>
       </c>
       <c r="H12" t="n">
-        <v>44.61272811889648</v>
+        <v>45.1786994934082</v>
       </c>
       <c r="I12" t="n">
-        <v>980.1347045898438</v>
+        <v>979.4893798828125</v>
       </c>
       <c r="J12" t="n">
-        <v>63.78651809692383</v>
+        <v>64.14469146728516</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9882354736328</v>
+        <v>165.072509765625</v>
       </c>
       <c r="H13" t="n">
-        <v>43.10788345336914</v>
+        <v>44.27549362182617</v>
       </c>
       <c r="I13" t="n">
-        <v>990.0153198242188</v>
+        <v>991.595947265625</v>
       </c>
       <c r="J13" t="n">
-        <v>68.47819519042969</v>
+        <v>68.97429656982422</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>104.9671325683594</v>
+        <v>106.5585250854492</v>
       </c>
       <c r="H14" t="n">
-        <v>58.63278198242188</v>
+        <v>58.98121643066406</v>
       </c>
       <c r="I14" t="n">
-        <v>213.8532409667969</v>
+        <v>216.3512420654297</v>
       </c>
       <c r="J14" t="n">
-        <v>78.18362426757812</v>
+        <v>80.75039672851562</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>116.1010513305664</v>
+        <v>115.307502746582</v>
       </c>
       <c r="H15" t="n">
-        <v>57.80436325073242</v>
+        <v>57.59968185424805</v>
       </c>
       <c r="I15" t="n">
-        <v>353.6252746582031</v>
+        <v>353.8209838867188</v>
       </c>
       <c r="J15" t="n">
-        <v>138.4590606689453</v>
+        <v>134.3445434570312</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6757431030273</v>
+        <v>121.1467208862305</v>
       </c>
       <c r="H16" t="n">
-        <v>56.20412063598633</v>
+        <v>53.83380508422852</v>
       </c>
       <c r="I16" t="n">
-        <v>723.5980834960938</v>
+        <v>716.4002075195312</v>
       </c>
       <c r="J16" t="n">
-        <v>187.1849517822266</v>
+        <v>185.593994140625</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>124.5440521240234</v>
+        <v>126.9013900756836</v>
       </c>
       <c r="H17" t="n">
-        <v>52.34542083740234</v>
+        <v>52.4278678894043</v>
       </c>
       <c r="I17" t="n">
-        <v>966.6295776367188</v>
+        <v>971.525634765625</v>
       </c>
       <c r="J17" t="n">
-        <v>76.787109375</v>
+        <v>74.22622680664062</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>129.1000213623047</v>
+        <v>133.1915740966797</v>
       </c>
       <c r="H18" t="n">
-        <v>48.56142807006836</v>
+        <v>48.74977493286133</v>
       </c>
       <c r="I18" t="n">
-        <v>988.4401245117188</v>
+        <v>991.6649169921875</v>
       </c>
       <c r="J18" t="n">
-        <v>68.50161743164062</v>
+        <v>72.22892761230469</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>142.1329498291016</v>
+        <v>143.2946166992188</v>
       </c>
       <c r="H19" t="n">
-        <v>45.7808723449707</v>
+        <v>46.13497543334961</v>
       </c>
       <c r="I19" t="n">
-        <v>993.9315795898438</v>
+        <v>992.5531005859375</v>
       </c>
       <c r="J19" t="n">
-        <v>66.59665679931641</v>
+        <v>66.734619140625</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>149.48095703125</v>
+        <v>149.6146392822266</v>
       </c>
       <c r="H20" t="n">
-        <v>44.15233993530273</v>
+        <v>44.24923324584961</v>
       </c>
       <c r="I20" t="n">
-        <v>997.7361450195312</v>
+        <v>997.014404296875</v>
       </c>
       <c r="J20" t="n">
-        <v>68.70338439941406</v>
+        <v>66.65118408203125</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>167.3296813964844</v>
+        <v>167.5602416992188</v>
       </c>
       <c r="H21" t="n">
-        <v>44.84590148925781</v>
+        <v>45.01193237304688</v>
       </c>
       <c r="I21" t="n">
-        <v>988.07958984375</v>
+        <v>987.1953125</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60272216796875</v>
+        <v>71.32244873046875</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>249.0966644287109</v>
+        <v>250.4432067871094</v>
       </c>
       <c r="H22" t="n">
-        <v>62.13843154907227</v>
+        <v>62.69929504394531</v>
       </c>
       <c r="I22" t="n">
-        <v>863.4930419921875</v>
+        <v>863.8952026367188</v>
       </c>
       <c r="J22" t="n">
-        <v>163.6551361083984</v>
+        <v>163.1313171386719</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>99.06479644775391</v>
+        <v>101.245475769043</v>
       </c>
       <c r="H23" t="n">
-        <v>61.16826629638672</v>
+        <v>59.70029449462891</v>
       </c>
       <c r="I23" t="n">
-        <v>139.4991607666016</v>
+        <v>136.3102874755859</v>
       </c>
       <c r="J23" t="n">
-        <v>61.18497467041016</v>
+        <v>60.16669082641602</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>108.3871536254883</v>
+        <v>109.4045715332031</v>
       </c>
       <c r="H24" t="n">
-        <v>57.80887603759766</v>
+        <v>58.4400634765625</v>
       </c>
       <c r="I24" t="n">
-        <v>183.5532379150391</v>
+        <v>183.6744842529297</v>
       </c>
       <c r="J24" t="n">
-        <v>74.25090789794922</v>
+        <v>73.03483581542969</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>118.482048034668</v>
+        <v>120.3173065185547</v>
       </c>
       <c r="H25" t="n">
-        <v>54.80839920043945</v>
+        <v>54.48445892333984</v>
       </c>
       <c r="I25" t="n">
-        <v>255.5247955322266</v>
+        <v>257.8791198730469</v>
       </c>
       <c r="J25" t="n">
-        <v>103.5902786254883</v>
+        <v>105.7222595214844</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>122.7181091308594</v>
+        <v>124.3818740844727</v>
       </c>
       <c r="H26" t="n">
-        <v>53.29588317871094</v>
+        <v>53.36072540283203</v>
       </c>
       <c r="I26" t="n">
-        <v>542.544921875</v>
+        <v>539.928955078125</v>
       </c>
       <c r="J26" t="n">
-        <v>218.5985412597656</v>
+        <v>214.4931182861328</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>131.2127227783203</v>
+        <v>130.1419067382812</v>
       </c>
       <c r="H27" t="n">
-        <v>50.07712554931641</v>
+        <v>49.59839248657227</v>
       </c>
       <c r="I27" t="n">
-        <v>935.0306396484375</v>
+        <v>936.260009765625</v>
       </c>
       <c r="J27" t="n">
-        <v>114.1960372924805</v>
+        <v>109.0779418945312</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>135.8570251464844</v>
+        <v>135.4161376953125</v>
       </c>
       <c r="H28" t="n">
-        <v>50.47694778442383</v>
+        <v>47.64272689819336</v>
       </c>
       <c r="I28" t="n">
-        <v>995.4630126953125</v>
+        <v>997.881591796875</v>
       </c>
       <c r="J28" t="n">
-        <v>70.44059753417969</v>
+        <v>70.340087890625</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>147.279052734375</v>
+        <v>148.1099395751953</v>
       </c>
       <c r="H29" t="n">
-        <v>46.80337524414062</v>
+        <v>48.33689498901367</v>
       </c>
       <c r="I29" t="n">
-        <v>993.5101318359375</v>
+        <v>994.03564453125</v>
       </c>
       <c r="J29" t="n">
-        <v>71.79963684082031</v>
+        <v>69.83616638183594</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>178.0785675048828</v>
+        <v>179.1761322021484</v>
       </c>
       <c r="H30" t="n">
-        <v>49.9422607421875</v>
+        <v>48.78243255615234</v>
       </c>
       <c r="I30" t="n">
-        <v>931.084716796875</v>
+        <v>931.3001098632812</v>
       </c>
       <c r="J30" t="n">
-        <v>121.557014465332</v>
+        <v>119.4890747070312</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>267.1916809082031</v>
+        <v>264.5243835449219</v>
       </c>
       <c r="H31" t="n">
-        <v>64.42264556884766</v>
+        <v>62.26354598999023</v>
       </c>
       <c r="I31" t="n">
-        <v>720.5491943359375</v>
+        <v>719.4984130859375</v>
       </c>
       <c r="J31" t="n">
-        <v>204.5018005371094</v>
+        <v>209.5414886474609</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>96.00183868408203</v>
+        <v>95.98275756835938</v>
       </c>
       <c r="H32" t="n">
-        <v>61.21133041381836</v>
+        <v>60.12322235107422</v>
       </c>
       <c r="I32" t="n">
-        <v>96.52550506591797</v>
+        <v>95.11632537841797</v>
       </c>
       <c r="J32" t="n">
-        <v>51.23441696166992</v>
+        <v>52.4361572265625</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>108.2084274291992</v>
+        <v>107.5044784545898</v>
       </c>
       <c r="H33" t="n">
-        <v>58.13048553466797</v>
+        <v>58.6064453125</v>
       </c>
       <c r="I33" t="n">
-        <v>123.143424987793</v>
+        <v>122.0255584716797</v>
       </c>
       <c r="J33" t="n">
-        <v>53.19021606445312</v>
+        <v>52.30663681030273</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>112.9622116088867</v>
+        <v>113.2790756225586</v>
       </c>
       <c r="H34" t="n">
-        <v>55.37407302856445</v>
+        <v>56.93742752075195</v>
       </c>
       <c r="I34" t="n">
-        <v>153.4184112548828</v>
+        <v>152.2494354248047</v>
       </c>
       <c r="J34" t="n">
-        <v>61.80039596557617</v>
+        <v>58.62065124511719</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>119.4827499389648</v>
+        <v>120.5917587280273</v>
       </c>
       <c r="H35" t="n">
-        <v>54.59690475463867</v>
+        <v>54.01485824584961</v>
       </c>
       <c r="I35" t="n">
-        <v>204.9621734619141</v>
+        <v>204.3568725585938</v>
       </c>
       <c r="J35" t="n">
-        <v>87.97785186767578</v>
+        <v>83.62445831298828</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>127.6171112060547</v>
+        <v>124.1811294555664</v>
       </c>
       <c r="H36" t="n">
-        <v>51.18313598632812</v>
+        <v>53.48178863525391</v>
       </c>
       <c r="I36" t="n">
-        <v>387.5466003417969</v>
+        <v>384.8406982421875</v>
       </c>
       <c r="J36" t="n">
-        <v>180.1901245117188</v>
+        <v>181.166015625</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>133.6667633056641</v>
+        <v>130.4001159667969</v>
       </c>
       <c r="H37" t="n">
-        <v>50.1404914855957</v>
+        <v>50.77108001708984</v>
       </c>
       <c r="I37" t="n">
-        <v>646.9905395507812</v>
+        <v>635.71923828125</v>
       </c>
       <c r="J37" t="n">
-        <v>215.1334838867188</v>
+        <v>220.9788360595703</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>145.2883453369141</v>
+        <v>149.1905212402344</v>
       </c>
       <c r="H38" t="n">
-        <v>47.99821090698242</v>
+        <v>48.88431549072266</v>
       </c>
       <c r="I38" t="n">
-        <v>870.0196533203125</v>
+        <v>874.6204223632812</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1033020019531</v>
+        <v>148.2304840087891</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.5623321533203</v>
+        <v>185.4266357421875</v>
       </c>
       <c r="H39" t="n">
-        <v>53.87370300292969</v>
+        <v>53.60869598388672</v>
       </c>
       <c r="I39" t="n">
-        <v>697.7922973632812</v>
+        <v>707.4765625</v>
       </c>
       <c r="J39" t="n">
-        <v>234.7053985595703</v>
+        <v>236.6628112792969</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5152587890625</v>
+        <v>267.7057189941406</v>
       </c>
       <c r="H40" t="n">
-        <v>61.85152816772461</v>
+        <v>63.35774993896484</v>
       </c>
       <c r="I40" t="n">
-        <v>610.1442260742188</v>
+        <v>609.8001708984375</v>
       </c>
       <c r="J40" t="n">
-        <v>206.0828704833984</v>
+        <v>209.8886260986328</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>94.46173858642578</v>
+        <v>92.23091125488281</v>
       </c>
       <c r="H41" t="n">
-        <v>60.82663726806641</v>
+        <v>60.20160675048828</v>
       </c>
       <c r="I41" t="n">
-        <v>69.93011474609375</v>
+        <v>67.68002319335938</v>
       </c>
       <c r="J41" t="n">
-        <v>47.13840103149414</v>
+        <v>45.00423431396484</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>102.7893371582031</v>
+        <v>103.2056732177734</v>
       </c>
       <c r="H42" t="n">
-        <v>57.87925338745117</v>
+        <v>59.06485748291016</v>
       </c>
       <c r="I42" t="n">
-        <v>87.12702178955078</v>
+        <v>87.00138854980469</v>
       </c>
       <c r="J42" t="n">
-        <v>46.44486236572266</v>
+        <v>45.5728874206543</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>114.7726440429688</v>
+        <v>112.317512512207</v>
       </c>
       <c r="H43" t="n">
-        <v>53.34729766845703</v>
+        <v>53.0181884765625</v>
       </c>
       <c r="I43" t="n">
-        <v>104.8388900756836</v>
+        <v>105.8540802001953</v>
       </c>
       <c r="J43" t="n">
-        <v>48.53326416015625</v>
+        <v>46.10726547241211</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>117.8777847290039</v>
+        <v>119.4872283935547</v>
       </c>
       <c r="H44" t="n">
-        <v>56.13822937011719</v>
+        <v>54.02080917358398</v>
       </c>
       <c r="I44" t="n">
-        <v>129.9413604736328</v>
+        <v>129.0872192382812</v>
       </c>
       <c r="J44" t="n">
-        <v>50.39883041381836</v>
+        <v>52.07555770874023</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>121.3047790527344</v>
+        <v>124.1055450439453</v>
       </c>
       <c r="H45" t="n">
-        <v>54.70906448364258</v>
+        <v>52.0654411315918</v>
       </c>
       <c r="I45" t="n">
-        <v>163.3772125244141</v>
+        <v>164.4352264404297</v>
       </c>
       <c r="J45" t="n">
-        <v>64.30970001220703</v>
+        <v>66.91008758544922</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>127.8545684814453</v>
+        <v>128.0060882568359</v>
       </c>
       <c r="H46" t="n">
-        <v>49.96063232421875</v>
+        <v>49.67722320556641</v>
       </c>
       <c r="I46" t="n">
-        <v>220.3074951171875</v>
+        <v>221.53759765625</v>
       </c>
       <c r="J46" t="n">
-        <v>98.92982482910156</v>
+        <v>104.4315948486328</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>139.9899444580078</v>
+        <v>141.3176879882812</v>
       </c>
       <c r="H47" t="n">
-        <v>51.15370941162109</v>
+        <v>51.35665893554688</v>
       </c>
       <c r="I47" t="n">
-        <v>360.7785949707031</v>
+        <v>358.3155212402344</v>
       </c>
       <c r="J47" t="n">
-        <v>212.5094909667969</v>
+        <v>208.8878784179688</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>195.8519592285156</v>
+        <v>196.9644927978516</v>
       </c>
       <c r="H48" t="n">
-        <v>51.36721038818359</v>
+        <v>51.83110809326172</v>
       </c>
       <c r="I48" t="n">
-        <v>466.1024475097656</v>
+        <v>471.3554077148438</v>
       </c>
       <c r="J48" t="n">
-        <v>208.2129364013672</v>
+        <v>211.9905548095703</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>269.6138916015625</v>
+        <v>267.216552734375</v>
       </c>
       <c r="H49" t="n">
-        <v>61.47940063476562</v>
+        <v>62.12086868286133</v>
       </c>
       <c r="I49" t="n">
-        <v>487.6157836914062</v>
+        <v>472.950927734375</v>
       </c>
       <c r="J49" t="n">
-        <v>195.8955230712891</v>
+        <v>184.0849304199219</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>96.45669555664062</v>
+        <v>97.65396118164062</v>
       </c>
       <c r="H50" t="n">
-        <v>61.3636589050293</v>
+        <v>60.61981964111328</v>
       </c>
       <c r="I50" t="n">
-        <v>54.65106201171875</v>
+        <v>53.26128387451172</v>
       </c>
       <c r="J50" t="n">
-        <v>46.43340301513672</v>
+        <v>46.27608871459961</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>107.7107925415039</v>
+        <v>104.4591751098633</v>
       </c>
       <c r="H51" t="n">
-        <v>59.05211639404297</v>
+        <v>57.26688385009766</v>
       </c>
       <c r="I51" t="n">
-        <v>65.80278015136719</v>
+        <v>66.34274291992188</v>
       </c>
       <c r="J51" t="n">
-        <v>44.16210174560547</v>
+        <v>44.5247688293457</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>114.7394027709961</v>
+        <v>113.3532791137695</v>
       </c>
       <c r="H52" t="n">
-        <v>53.88986968994141</v>
+        <v>57.80727767944336</v>
       </c>
       <c r="I52" t="n">
-        <v>75.46914672851562</v>
+        <v>76.88665771484375</v>
       </c>
       <c r="J52" t="n">
-        <v>48.49721145629883</v>
+        <v>42.38236999511719</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>117.1299514770508</v>
+        <v>118.6165618896484</v>
       </c>
       <c r="H53" t="n">
-        <v>55.07472991943359</v>
+        <v>55.76420211791992</v>
       </c>
       <c r="I53" t="n">
-        <v>93.09224700927734</v>
+        <v>91.83750915527344</v>
       </c>
       <c r="J53" t="n">
-        <v>45.58885955810547</v>
+        <v>43.67764663696289</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>122.4502868652344</v>
+        <v>124.2389297485352</v>
       </c>
       <c r="H54" t="n">
-        <v>54.58062362670898</v>
+        <v>54.23337554931641</v>
       </c>
       <c r="I54" t="n">
-        <v>112.8648147583008</v>
+        <v>114.1890487670898</v>
       </c>
       <c r="J54" t="n">
-        <v>48.84627914428711</v>
+        <v>47.52499008178711</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>132.3786926269531</v>
+        <v>130.5607604980469</v>
       </c>
       <c r="H55" t="n">
-        <v>48.73815536499023</v>
+        <v>51.12633514404297</v>
       </c>
       <c r="I55" t="n">
-        <v>131.0266876220703</v>
+        <v>127.2655563354492</v>
       </c>
       <c r="J55" t="n">
-        <v>47.53306198120117</v>
+        <v>45.19412231445312</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>140.5201568603516</v>
+        <v>142.3482513427734</v>
       </c>
       <c r="H56" t="n">
-        <v>48.39861679077148</v>
+        <v>49.90623092651367</v>
       </c>
       <c r="I56" t="n">
-        <v>163.97314453125</v>
+        <v>160.8006134033203</v>
       </c>
       <c r="J56" t="n">
-        <v>75.88056945800781</v>
+        <v>71.49636077880859</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>194.2084503173828</v>
+        <v>194.13134765625</v>
       </c>
       <c r="H57" t="n">
-        <v>50.05277252197266</v>
+        <v>50.54454040527344</v>
       </c>
       <c r="I57" t="n">
-        <v>299.983642578125</v>
+        <v>303.0981750488281</v>
       </c>
       <c r="J57" t="n">
-        <v>153.0180053710938</v>
+        <v>151.9729461669922</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>264.9592590332031</v>
+        <v>264.8817138671875</v>
       </c>
       <c r="H58" t="n">
-        <v>59.58970260620117</v>
+        <v>61.5953369140625</v>
       </c>
       <c r="I58" t="n">
-        <v>375.1425170898438</v>
+        <v>369.0245971679688</v>
       </c>
       <c r="J58" t="n">
-        <v>167.0718536376953</v>
+        <v>161.3190002441406</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>108.8522033691406</v>
+        <v>107.0146102905273</v>
       </c>
       <c r="H59" t="n">
-        <v>57.75454711914062</v>
+        <v>58.13237380981445</v>
       </c>
       <c r="I59" t="n">
-        <v>41.75646209716797</v>
+        <v>41.83157730102539</v>
       </c>
       <c r="J59" t="n">
-        <v>48.0156364440918</v>
+        <v>47.6081657409668</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>113.3435516357422</v>
+        <v>113.7384490966797</v>
       </c>
       <c r="H60" t="n">
-        <v>55.54719924926758</v>
+        <v>55.74741744995117</v>
       </c>
       <c r="I60" t="n">
-        <v>50.96676254272461</v>
+        <v>49.54814529418945</v>
       </c>
       <c r="J60" t="n">
-        <v>48.17207717895508</v>
+        <v>47.30848693847656</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>120.159065246582</v>
+        <v>123.9301986694336</v>
       </c>
       <c r="H61" t="n">
-        <v>54.32233810424805</v>
+        <v>53.90778350830078</v>
       </c>
       <c r="I61" t="n">
-        <v>66.14545440673828</v>
+        <v>65.67863464355469</v>
       </c>
       <c r="J61" t="n">
-        <v>46.31843948364258</v>
+        <v>46.78090667724609</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>125.1567840576172</v>
+        <v>124.4354782104492</v>
       </c>
       <c r="H62" t="n">
-        <v>53.11932754516602</v>
+        <v>54.81477355957031</v>
       </c>
       <c r="I62" t="n">
-        <v>77.54490661621094</v>
+        <v>78.43569946289062</v>
       </c>
       <c r="J62" t="n">
-        <v>47.95573806762695</v>
+        <v>47.57330322265625</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>130.8555297851562</v>
+        <v>129.9875335693359</v>
       </c>
       <c r="H63" t="n">
-        <v>50.70615768432617</v>
+        <v>51.03808212280273</v>
       </c>
       <c r="I63" t="n">
-        <v>93.89513397216797</v>
+        <v>94.27339935302734</v>
       </c>
       <c r="J63" t="n">
-        <v>44.71888732910156</v>
+        <v>43.59662246704102</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>151.5231323242188</v>
+        <v>148.8961944580078</v>
       </c>
       <c r="H64" t="n">
-        <v>49.38864135742188</v>
+        <v>48.54656219482422</v>
       </c>
       <c r="I64" t="n">
-        <v>108.6828536987305</v>
+        <v>110.147590637207</v>
       </c>
       <c r="J64" t="n">
-        <v>50.86137008666992</v>
+        <v>48.81061172485352</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>196.7204437255859</v>
+        <v>197.1872406005859</v>
       </c>
       <c r="H65" t="n">
-        <v>49.32342910766602</v>
+        <v>47.41282272338867</v>
       </c>
       <c r="I65" t="n">
-        <v>172.8096771240234</v>
+        <v>168.9848937988281</v>
       </c>
       <c r="J65" t="n">
-        <v>112.7977142333984</v>
+        <v>112.3723373413086</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>122.8472366333008</v>
+        <v>126.2960968017578</v>
       </c>
       <c r="H66" t="n">
-        <v>54.15967559814453</v>
+        <v>54.39307022094727</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5954373478889465</v>
+        <v>1.542838215827942</v>
       </c>
       <c r="J66" t="n">
-        <v>59.57480621337891</v>
+        <v>59.39347076416016</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>127.0930709838867</v>
+        <v>129.5780792236328</v>
       </c>
       <c r="H67" t="n">
-        <v>55.08964157104492</v>
+        <v>52.45172500610352</v>
       </c>
       <c r="I67" t="n">
-        <v>17.07089233398438</v>
+        <v>15.79538440704346</v>
       </c>
       <c r="J67" t="n">
-        <v>56.63812637329102</v>
+        <v>57.32052993774414</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>130.3688507080078</v>
+        <v>126.8442306518555</v>
       </c>
       <c r="H68" t="n">
-        <v>54.26485824584961</v>
+        <v>52.22272872924805</v>
       </c>
       <c r="I68" t="n">
-        <v>35.17263412475586</v>
+        <v>33.7633056640625</v>
       </c>
       <c r="J68" t="n">
-        <v>54.11275100708008</v>
+        <v>54.74468231201172</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>136.0939636230469</v>
+        <v>136.7505035400391</v>
       </c>
       <c r="H69" t="n">
-        <v>50.83196258544922</v>
+        <v>52.14556884765625</v>
       </c>
       <c r="I69" t="n">
-        <v>56.82490158081055</v>
+        <v>56.84770202636719</v>
       </c>
       <c r="J69" t="n">
-        <v>54.33254623413086</v>
+        <v>54.90792083740234</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>151.6969146728516</v>
+        <v>149.9226684570312</v>
       </c>
       <c r="H70" t="n">
-        <v>48.6657600402832</v>
+        <v>50.57496643066406</v>
       </c>
       <c r="I70" t="n">
-        <v>79.69431304931641</v>
+        <v>79.68869018554688</v>
       </c>
       <c r="J70" t="n">
-        <v>55.19231414794922</v>
+        <v>56.22160339355469</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>132.4609985351562</v>
+        <v>120.3185653686523</v>
       </c>
       <c r="H2" t="n">
-        <v>51.71201705932617</v>
+        <v>51.33816528320312</v>
       </c>
       <c r="I2" t="n">
-        <v>903.2344970703125</v>
+        <v>908.327392578125</v>
       </c>
       <c r="J2" t="n">
-        <v>77.67316436767578</v>
+        <v>75.45453643798828</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>138.6773681640625</v>
+        <v>128.1200866699219</v>
       </c>
       <c r="H3" t="n">
-        <v>50.24663925170898</v>
+        <v>49.96179962158203</v>
       </c>
       <c r="I3" t="n">
-        <v>910.8515625</v>
+        <v>924.7589721679688</v>
       </c>
       <c r="J3" t="n">
-        <v>72.79878234863281</v>
+        <v>67.18148040771484</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>152.5290374755859</v>
+        <v>140.4214019775391</v>
       </c>
       <c r="H4" t="n">
-        <v>47.03755950927734</v>
+        <v>48.82018661499023</v>
       </c>
       <c r="I4" t="n">
-        <v>929.109375</v>
+        <v>934.8782348632812</v>
       </c>
       <c r="J4" t="n">
-        <v>66.381103515625</v>
+        <v>73.59346771240234</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>162.3445739746094</v>
+        <v>151.8730010986328</v>
       </c>
       <c r="H5" t="n">
-        <v>46.92490386962891</v>
+        <v>47.91238403320312</v>
       </c>
       <c r="I5" t="n">
-        <v>941.9541625976562</v>
+        <v>952.1170654296875</v>
       </c>
       <c r="J5" t="n">
-        <v>69.43345642089844</v>
+        <v>67.97515869140625</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>163.6813049316406</v>
+        <v>159.1791229248047</v>
       </c>
       <c r="H6" t="n">
-        <v>47.40158462524414</v>
+        <v>47.19430541992188</v>
       </c>
       <c r="I6" t="n">
-        <v>959.5790405273438</v>
+        <v>965.0938720703125</v>
       </c>
       <c r="J6" t="n">
-        <v>71.29796600341797</v>
+        <v>70.20880126953125</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>112.9238815307617</v>
+        <v>108.6122817993164</v>
       </c>
       <c r="H7" t="n">
-        <v>56.60541534423828</v>
+        <v>56.88713073730469</v>
       </c>
       <c r="I7" t="n">
-        <v>850.7708740234375</v>
+        <v>792.8239135742188</v>
       </c>
       <c r="J7" t="n">
-        <v>124.4343032836914</v>
+        <v>187.5391387939453</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>121.502326965332</v>
+        <v>119.2869644165039</v>
       </c>
       <c r="H8" t="n">
-        <v>52.95067977905273</v>
+        <v>53.55129241943359</v>
       </c>
       <c r="I8" t="n">
-        <v>934.4193725585938</v>
+        <v>911.6047973632812</v>
       </c>
       <c r="J8" t="n">
-        <v>82.32551574707031</v>
+        <v>109.3888626098633</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>130.9476928710938</v>
+        <v>121.4654922485352</v>
       </c>
       <c r="H9" t="n">
-        <v>51.45252990722656</v>
+        <v>49.3571891784668</v>
       </c>
       <c r="I9" t="n">
-        <v>950.3185424804688</v>
+        <v>957.149169921875</v>
       </c>
       <c r="J9" t="n">
-        <v>71.49295806884766</v>
+        <v>73.33271026611328</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>143.5145111083984</v>
+        <v>134.1993560791016</v>
       </c>
       <c r="H10" t="n">
-        <v>47.9832763671875</v>
+        <v>45.40293121337891</v>
       </c>
       <c r="I10" t="n">
-        <v>963.8599853515625</v>
+        <v>971.1077270507812</v>
       </c>
       <c r="J10" t="n">
-        <v>66.45746612548828</v>
+        <v>66.74713134765625</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>151.6259918212891</v>
+        <v>146.2842559814453</v>
       </c>
       <c r="H11" t="n">
-        <v>44.67057418823242</v>
+        <v>45.09619903564453</v>
       </c>
       <c r="I11" t="n">
-        <v>969.4116821289062</v>
+        <v>981.4216918945312</v>
       </c>
       <c r="J11" t="n">
-        <v>67.28739166259766</v>
+        <v>67.06479644775391</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>157.5667114257812</v>
+        <v>153.6219329833984</v>
       </c>
       <c r="H12" t="n">
-        <v>45.1786994934082</v>
+        <v>43.97338485717773</v>
       </c>
       <c r="I12" t="n">
-        <v>979.4893798828125</v>
+        <v>995.1587524414062</v>
       </c>
       <c r="J12" t="n">
-        <v>64.14469146728516</v>
+        <v>73.73963165283203</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>165.072509765625</v>
+        <v>162.0804901123047</v>
       </c>
       <c r="H13" t="n">
-        <v>44.27549362182617</v>
+        <v>41.58974838256836</v>
       </c>
       <c r="I13" t="n">
-        <v>991.595947265625</v>
+        <v>1001.450500488281</v>
       </c>
       <c r="J13" t="n">
-        <v>68.97429656982422</v>
+        <v>74.23424530029297</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>106.5585250854492</v>
+        <v>86.98927307128906</v>
       </c>
       <c r="H14" t="n">
-        <v>58.98121643066406</v>
+        <v>63.68297958374023</v>
       </c>
       <c r="I14" t="n">
-        <v>216.3512420654297</v>
+        <v>220.4643249511719</v>
       </c>
       <c r="J14" t="n">
-        <v>80.75039672851562</v>
+        <v>72.64171600341797</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>115.307502746582</v>
+        <v>105.7817306518555</v>
       </c>
       <c r="H15" t="n">
-        <v>57.59968185424805</v>
+        <v>58.25249481201172</v>
       </c>
       <c r="I15" t="n">
-        <v>353.8209838867188</v>
+        <v>381.7067565917969</v>
       </c>
       <c r="J15" t="n">
-        <v>134.3445434570312</v>
+        <v>148.6807556152344</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>121.1467208862305</v>
+        <v>112.9301452636719</v>
       </c>
       <c r="H16" t="n">
-        <v>53.83380508422852</v>
+        <v>56.98166656494141</v>
       </c>
       <c r="I16" t="n">
-        <v>716.4002075195312</v>
+        <v>684.339599609375</v>
       </c>
       <c r="J16" t="n">
-        <v>185.593994140625</v>
+        <v>206.8400726318359</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>126.9013900756836</v>
+        <v>115.957160949707</v>
       </c>
       <c r="H17" t="n">
-        <v>52.4278678894043</v>
+        <v>51.99330520629883</v>
       </c>
       <c r="I17" t="n">
-        <v>971.525634765625</v>
+        <v>961.392822265625</v>
       </c>
       <c r="J17" t="n">
-        <v>74.22622680664062</v>
+        <v>100.8639678955078</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>133.1915740966797</v>
+        <v>123.5768585205078</v>
       </c>
       <c r="H18" t="n">
-        <v>48.74977493286133</v>
+        <v>47.71483993530273</v>
       </c>
       <c r="I18" t="n">
-        <v>991.6649169921875</v>
+        <v>992.4804077148438</v>
       </c>
       <c r="J18" t="n">
-        <v>72.22892761230469</v>
+        <v>71.74508666992188</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>143.2946166992188</v>
+        <v>136.5574188232422</v>
       </c>
       <c r="H19" t="n">
-        <v>46.13497543334961</v>
+        <v>47.28726959228516</v>
       </c>
       <c r="I19" t="n">
-        <v>992.5531005859375</v>
+        <v>998.7501220703125</v>
       </c>
       <c r="J19" t="n">
-        <v>66.734619140625</v>
+        <v>71.39044189453125</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>149.6146392822266</v>
+        <v>144.4535064697266</v>
       </c>
       <c r="H20" t="n">
-        <v>44.24923324584961</v>
+        <v>44.8781852722168</v>
       </c>
       <c r="I20" t="n">
-        <v>997.014404296875</v>
+        <v>999.7345581054688</v>
       </c>
       <c r="J20" t="n">
-        <v>66.65118408203125</v>
+        <v>72.72501373291016</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>167.5602416992188</v>
+        <v>167.9586029052734</v>
       </c>
       <c r="H21" t="n">
-        <v>45.01193237304688</v>
+        <v>43.8758544921875</v>
       </c>
       <c r="I21" t="n">
-        <v>987.1953125</v>
+        <v>994.2704467773438</v>
       </c>
       <c r="J21" t="n">
-        <v>71.32244873046875</v>
+        <v>71.92481994628906</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>250.4432067871094</v>
+        <v>240.5991668701172</v>
       </c>
       <c r="H22" t="n">
-        <v>62.69929504394531</v>
+        <v>53.65982437133789</v>
       </c>
       <c r="I22" t="n">
-        <v>863.8952026367188</v>
+        <v>934.3623046875</v>
       </c>
       <c r="J22" t="n">
-        <v>163.1313171386719</v>
+        <v>113.314567565918</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>101.245475769043</v>
+        <v>79.92336273193359</v>
       </c>
       <c r="H23" t="n">
-        <v>59.70029449462891</v>
+        <v>64.74912261962891</v>
       </c>
       <c r="I23" t="n">
-        <v>136.3102874755859</v>
+        <v>138.7205352783203</v>
       </c>
       <c r="J23" t="n">
-        <v>60.16669082641602</v>
+        <v>68.54371643066406</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>109.4045715332031</v>
+        <v>96.60006713867188</v>
       </c>
       <c r="H24" t="n">
-        <v>58.4400634765625</v>
+        <v>59.24879837036133</v>
       </c>
       <c r="I24" t="n">
-        <v>183.6744842529297</v>
+        <v>192.3765563964844</v>
       </c>
       <c r="J24" t="n">
-        <v>73.03483581542969</v>
+        <v>76.48001098632812</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>120.3173065185547</v>
+        <v>109.6791915893555</v>
       </c>
       <c r="H25" t="n">
-        <v>54.48445892333984</v>
+        <v>56.8497200012207</v>
       </c>
       <c r="I25" t="n">
-        <v>257.8791198730469</v>
+        <v>262.6217956542969</v>
       </c>
       <c r="J25" t="n">
-        <v>105.7222595214844</v>
+        <v>103.8342514038086</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>124.3818740844727</v>
+        <v>116.6493377685547</v>
       </c>
       <c r="H26" t="n">
-        <v>53.36072540283203</v>
+        <v>54.91080093383789</v>
       </c>
       <c r="I26" t="n">
-        <v>539.928955078125</v>
+        <v>523.2464599609375</v>
       </c>
       <c r="J26" t="n">
-        <v>214.4931182861328</v>
+        <v>199.9987945556641</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>130.1419067382812</v>
+        <v>122.0846710205078</v>
       </c>
       <c r="H27" t="n">
-        <v>49.59839248657227</v>
+        <v>49.40182113647461</v>
       </c>
       <c r="I27" t="n">
-        <v>936.260009765625</v>
+        <v>928.0462646484375</v>
       </c>
       <c r="J27" t="n">
-        <v>109.0779418945312</v>
+        <v>109.254150390625</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>135.4161376953125</v>
+        <v>123.3160400390625</v>
       </c>
       <c r="H28" t="n">
-        <v>47.64272689819336</v>
+        <v>47.29650115966797</v>
       </c>
       <c r="I28" t="n">
-        <v>997.881591796875</v>
+        <v>995.5755004882812</v>
       </c>
       <c r="J28" t="n">
-        <v>70.340087890625</v>
+        <v>77.72367858886719</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>148.1099395751953</v>
+        <v>136.1210479736328</v>
       </c>
       <c r="H29" t="n">
-        <v>48.33689498901367</v>
+        <v>47.09133529663086</v>
       </c>
       <c r="I29" t="n">
-        <v>994.03564453125</v>
+        <v>991.8770751953125</v>
       </c>
       <c r="J29" t="n">
-        <v>69.83616638183594</v>
+        <v>76.86965179443359</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>179.1761322021484</v>
+        <v>177.1132507324219</v>
       </c>
       <c r="H30" t="n">
-        <v>48.78243255615234</v>
+        <v>42.98609161376953</v>
       </c>
       <c r="I30" t="n">
-        <v>931.3001098632812</v>
+        <v>950.1289672851562</v>
       </c>
       <c r="J30" t="n">
-        <v>119.4890747070312</v>
+        <v>88.63309478759766</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>264.5243835449219</v>
+        <v>252.3728637695312</v>
       </c>
       <c r="H31" t="n">
-        <v>62.26354598999023</v>
+        <v>55.29160308837891</v>
       </c>
       <c r="I31" t="n">
-        <v>719.4984130859375</v>
+        <v>795.3470458984375</v>
       </c>
       <c r="J31" t="n">
-        <v>209.5414886474609</v>
+        <v>193.8537902832031</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>95.98275756835938</v>
+        <v>72.68697357177734</v>
       </c>
       <c r="H32" t="n">
-        <v>60.12322235107422</v>
+        <v>65.55715179443359</v>
       </c>
       <c r="I32" t="n">
-        <v>95.11632537841797</v>
+        <v>102.049072265625</v>
       </c>
       <c r="J32" t="n">
-        <v>52.4361572265625</v>
+        <v>59.64172744750977</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>107.5044784545898</v>
+        <v>87.34041595458984</v>
       </c>
       <c r="H33" t="n">
-        <v>58.6064453125</v>
+        <v>60.97187423706055</v>
       </c>
       <c r="I33" t="n">
-        <v>122.0255584716797</v>
+        <v>130.174072265625</v>
       </c>
       <c r="J33" t="n">
-        <v>52.30663681030273</v>
+        <v>58.98943328857422</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>113.2790756225586</v>
+        <v>105.1476211547852</v>
       </c>
       <c r="H34" t="n">
-        <v>56.93742752075195</v>
+        <v>56.8724250793457</v>
       </c>
       <c r="I34" t="n">
-        <v>152.2494354248047</v>
+        <v>156.43896484375</v>
       </c>
       <c r="J34" t="n">
-        <v>58.62065124511719</v>
+        <v>65.77896881103516</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5917587280273</v>
+        <v>110.5898666381836</v>
       </c>
       <c r="H35" t="n">
-        <v>54.01485824584961</v>
+        <v>55.99576568603516</v>
       </c>
       <c r="I35" t="n">
-        <v>204.3568725585938</v>
+        <v>202.9340515136719</v>
       </c>
       <c r="J35" t="n">
-        <v>83.62445831298828</v>
+        <v>89.51753234863281</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>124.1811294555664</v>
+        <v>119.8501586914062</v>
       </c>
       <c r="H36" t="n">
-        <v>53.48178863525391</v>
+        <v>50.93099212646484</v>
       </c>
       <c r="I36" t="n">
-        <v>384.8406982421875</v>
+        <v>355.6604309082031</v>
       </c>
       <c r="J36" t="n">
-        <v>181.166015625</v>
+        <v>168.393310546875</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4001159667969</v>
+        <v>121.990234375</v>
       </c>
       <c r="H37" t="n">
-        <v>50.77108001708984</v>
+        <v>50.68232727050781</v>
       </c>
       <c r="I37" t="n">
-        <v>635.71923828125</v>
+        <v>599.4033203125</v>
       </c>
       <c r="J37" t="n">
-        <v>220.9788360595703</v>
+        <v>221.0245971679688</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>149.1905212402344</v>
+        <v>141.6993103027344</v>
       </c>
       <c r="H38" t="n">
-        <v>48.88431549072266</v>
+        <v>46.33710861206055</v>
       </c>
       <c r="I38" t="n">
-        <v>874.6204223632812</v>
+        <v>830.5282592773438</v>
       </c>
       <c r="J38" t="n">
-        <v>148.2304840087891</v>
+        <v>191.3769378662109</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>185.4266357421875</v>
+        <v>182.1460418701172</v>
       </c>
       <c r="H39" t="n">
-        <v>53.60869598388672</v>
+        <v>44.83121871948242</v>
       </c>
       <c r="I39" t="n">
-        <v>707.4765625</v>
+        <v>741.4689331054688</v>
       </c>
       <c r="J39" t="n">
-        <v>236.6628112792969</v>
+        <v>209.0844421386719</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>267.7057189941406</v>
+        <v>260.0785217285156</v>
       </c>
       <c r="H40" t="n">
-        <v>63.35774993896484</v>
+        <v>59.96488571166992</v>
       </c>
       <c r="I40" t="n">
-        <v>609.8001708984375</v>
+        <v>651.478271484375</v>
       </c>
       <c r="J40" t="n">
-        <v>209.8886260986328</v>
+        <v>235.9860229492188</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>92.23091125488281</v>
+        <v>70.14675140380859</v>
       </c>
       <c r="H41" t="n">
-        <v>60.20160675048828</v>
+        <v>65.61928558349609</v>
       </c>
       <c r="I41" t="n">
-        <v>67.68002319335938</v>
+        <v>79.23988342285156</v>
       </c>
       <c r="J41" t="n">
-        <v>45.00423431396484</v>
+        <v>49.16725540161133</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>103.2056732177734</v>
+        <v>92.52615356445312</v>
       </c>
       <c r="H42" t="n">
-        <v>59.06485748291016</v>
+        <v>59.54773712158203</v>
       </c>
       <c r="I42" t="n">
-        <v>87.00138854980469</v>
+        <v>95.64183807373047</v>
       </c>
       <c r="J42" t="n">
-        <v>45.5728874206543</v>
+        <v>45.88702011108398</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>112.317512512207</v>
+        <v>99.47486114501953</v>
       </c>
       <c r="H43" t="n">
-        <v>53.0181884765625</v>
+        <v>57.08783721923828</v>
       </c>
       <c r="I43" t="n">
-        <v>105.8540802001953</v>
+        <v>116.1713943481445</v>
       </c>
       <c r="J43" t="n">
-        <v>46.10726547241211</v>
+        <v>49.20050048828125</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>119.4872283935547</v>
+        <v>108.8616638183594</v>
       </c>
       <c r="H44" t="n">
-        <v>54.02080917358398</v>
+        <v>54.52046585083008</v>
       </c>
       <c r="I44" t="n">
-        <v>129.0872192382812</v>
+        <v>138.7246704101562</v>
       </c>
       <c r="J44" t="n">
-        <v>52.07555770874023</v>
+        <v>55.91660308837891</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>124.1055450439453</v>
+        <v>120.5593338012695</v>
       </c>
       <c r="H45" t="n">
-        <v>52.0654411315918</v>
+        <v>51.93071365356445</v>
       </c>
       <c r="I45" t="n">
-        <v>164.4352264404297</v>
+        <v>165.7339782714844</v>
       </c>
       <c r="J45" t="n">
-        <v>66.91008758544922</v>
+        <v>69.38951873779297</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>128.0060882568359</v>
+        <v>123.8721466064453</v>
       </c>
       <c r="H46" t="n">
-        <v>49.67722320556641</v>
+        <v>48.88818359375</v>
       </c>
       <c r="I46" t="n">
-        <v>221.53759765625</v>
+        <v>215.1921081542969</v>
       </c>
       <c r="J46" t="n">
-        <v>104.4315948486328</v>
+        <v>97.19090270996094</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>141.3176879882812</v>
+        <v>140.0624847412109</v>
       </c>
       <c r="H47" t="n">
-        <v>51.35665893554688</v>
+        <v>48.03036880493164</v>
       </c>
       <c r="I47" t="n">
-        <v>358.3155212402344</v>
+        <v>303.3778076171875</v>
       </c>
       <c r="J47" t="n">
-        <v>208.8878784179688</v>
+        <v>174.3592224121094</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>196.9644927978516</v>
+        <v>186.1671600341797</v>
       </c>
       <c r="H48" t="n">
-        <v>51.83110809326172</v>
+        <v>45.71096801757812</v>
       </c>
       <c r="I48" t="n">
-        <v>471.3554077148438</v>
+        <v>448.2681884765625</v>
       </c>
       <c r="J48" t="n">
-        <v>211.9905548095703</v>
+        <v>214.2402038574219</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>267.216552734375</v>
+        <v>260.1891784667969</v>
       </c>
       <c r="H49" t="n">
-        <v>62.12086868286133</v>
+        <v>60.5909423828125</v>
       </c>
       <c r="I49" t="n">
-        <v>472.950927734375</v>
+        <v>490.5549011230469</v>
       </c>
       <c r="J49" t="n">
-        <v>184.0849304199219</v>
+        <v>223.7985382080078</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>97.65396118164062</v>
+        <v>83.8558349609375</v>
       </c>
       <c r="H50" t="n">
-        <v>60.61981964111328</v>
+        <v>63.58385467529297</v>
       </c>
       <c r="I50" t="n">
-        <v>53.26128387451172</v>
+        <v>62.61921691894531</v>
       </c>
       <c r="J50" t="n">
-        <v>46.27608871459961</v>
+        <v>46.19933319091797</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>104.4591751098633</v>
+        <v>99.84407806396484</v>
       </c>
       <c r="H51" t="n">
-        <v>57.26688385009766</v>
+        <v>58.22556686401367</v>
       </c>
       <c r="I51" t="n">
-        <v>66.34274291992188</v>
+        <v>74.65748596191406</v>
       </c>
       <c r="J51" t="n">
-        <v>44.5247688293457</v>
+        <v>47.42929077148438</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>113.3532791137695</v>
+        <v>106.7010192871094</v>
       </c>
       <c r="H52" t="n">
-        <v>57.80727767944336</v>
+        <v>56.95830154418945</v>
       </c>
       <c r="I52" t="n">
-        <v>76.88665771484375</v>
+        <v>86.21430206298828</v>
       </c>
       <c r="J52" t="n">
-        <v>42.38236999511719</v>
+        <v>42.8042106628418</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>118.6165618896484</v>
+        <v>112.2774124145508</v>
       </c>
       <c r="H53" t="n">
-        <v>55.76420211791992</v>
+        <v>57.71130752563477</v>
       </c>
       <c r="I53" t="n">
-        <v>91.83750915527344</v>
+        <v>101.5294036865234</v>
       </c>
       <c r="J53" t="n">
-        <v>43.67764663696289</v>
+        <v>45.67904281616211</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>124.2389297485352</v>
+        <v>118.5933456420898</v>
       </c>
       <c r="H54" t="n">
-        <v>54.23337554931641</v>
+        <v>52.22661209106445</v>
       </c>
       <c r="I54" t="n">
-        <v>114.1890487670898</v>
+        <v>115.3273315429688</v>
       </c>
       <c r="J54" t="n">
-        <v>47.52499008178711</v>
+        <v>51.42173767089844</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>130.5607604980469</v>
+        <v>127.816535949707</v>
       </c>
       <c r="H55" t="n">
-        <v>51.12633514404297</v>
+        <v>51.59521484375</v>
       </c>
       <c r="I55" t="n">
-        <v>127.2655563354492</v>
+        <v>124.5478515625</v>
       </c>
       <c r="J55" t="n">
-        <v>45.19412231445312</v>
+        <v>49.72455978393555</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>142.3482513427734</v>
+        <v>138.0872650146484</v>
       </c>
       <c r="H56" t="n">
-        <v>49.90623092651367</v>
+        <v>48.92479705810547</v>
       </c>
       <c r="I56" t="n">
-        <v>160.8006134033203</v>
+        <v>159.0879516601562</v>
       </c>
       <c r="J56" t="n">
-        <v>71.49636077880859</v>
+        <v>63.74288940429688</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>194.13134765625</v>
+        <v>179.7135467529297</v>
       </c>
       <c r="H57" t="n">
-        <v>50.54454040527344</v>
+        <v>47.93361663818359</v>
       </c>
       <c r="I57" t="n">
-        <v>303.0981750488281</v>
+        <v>286.8977355957031</v>
       </c>
       <c r="J57" t="n">
-        <v>151.9729461669922</v>
+        <v>167.7454681396484</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>264.8817138671875</v>
+        <v>254.7040863037109</v>
       </c>
       <c r="H58" t="n">
-        <v>61.5953369140625</v>
+        <v>60.42980194091797</v>
       </c>
       <c r="I58" t="n">
-        <v>369.0245971679688</v>
+        <v>393.4307556152344</v>
       </c>
       <c r="J58" t="n">
-        <v>161.3190002441406</v>
+        <v>197.5889129638672</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>107.0146102905273</v>
+        <v>105.2005310058594</v>
       </c>
       <c r="H59" t="n">
-        <v>58.13237380981445</v>
+        <v>56.74905014038086</v>
       </c>
       <c r="I59" t="n">
-        <v>41.83157730102539</v>
+        <v>47.08115005493164</v>
       </c>
       <c r="J59" t="n">
-        <v>47.6081657409668</v>
+        <v>50.65904998779297</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>113.7384490966797</v>
+        <v>109.6060180664062</v>
       </c>
       <c r="H60" t="n">
-        <v>55.74741744995117</v>
+        <v>55.29151153564453</v>
       </c>
       <c r="I60" t="n">
-        <v>49.54814529418945</v>
+        <v>53.61154556274414</v>
       </c>
       <c r="J60" t="n">
-        <v>47.30848693847656</v>
+        <v>52.43595123291016</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>123.9301986694336</v>
+        <v>119.6881484985352</v>
       </c>
       <c r="H61" t="n">
-        <v>53.90778350830078</v>
+        <v>56.05810546875</v>
       </c>
       <c r="I61" t="n">
-        <v>65.67863464355469</v>
+        <v>67.80746459960938</v>
       </c>
       <c r="J61" t="n">
-        <v>46.78090667724609</v>
+        <v>51.63030242919922</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>124.4354782104492</v>
+        <v>123.4213409423828</v>
       </c>
       <c r="H62" t="n">
-        <v>54.81477355957031</v>
+        <v>53.27846145629883</v>
       </c>
       <c r="I62" t="n">
-        <v>78.43569946289062</v>
+        <v>73.38685607910156</v>
       </c>
       <c r="J62" t="n">
-        <v>47.57330322265625</v>
+        <v>51.74182510375977</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>129.9875335693359</v>
+        <v>129.5427856445312</v>
       </c>
       <c r="H63" t="n">
-        <v>51.03808212280273</v>
+        <v>51.90166854858398</v>
       </c>
       <c r="I63" t="n">
-        <v>94.27339935302734</v>
+        <v>87.52734375</v>
       </c>
       <c r="J63" t="n">
-        <v>43.59662246704102</v>
+        <v>52.86672973632812</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>148.8961944580078</v>
+        <v>139.6780242919922</v>
       </c>
       <c r="H64" t="n">
-        <v>48.54656219482422</v>
+        <v>49.42075729370117</v>
       </c>
       <c r="I64" t="n">
-        <v>110.147590637207</v>
+        <v>118.8957290649414</v>
       </c>
       <c r="J64" t="n">
-        <v>48.81061172485352</v>
+        <v>56.42921447753906</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>197.1872406005859</v>
+        <v>175.1767120361328</v>
       </c>
       <c r="H65" t="n">
-        <v>47.41282272338867</v>
+        <v>49.15948867797852</v>
       </c>
       <c r="I65" t="n">
-        <v>168.9848937988281</v>
+        <v>178.6005401611328</v>
       </c>
       <c r="J65" t="n">
-        <v>112.3723373413086</v>
+        <v>114.2961654663086</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>126.2960968017578</v>
+        <v>125.6200103759766</v>
       </c>
       <c r="H66" t="n">
-        <v>54.39307022094727</v>
+        <v>53.52191925048828</v>
       </c>
       <c r="I66" t="n">
-        <v>1.542838215827942</v>
+        <v>-6.995287895202637</v>
       </c>
       <c r="J66" t="n">
-        <v>59.39347076416016</v>
+        <v>71.50479888916016</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>129.5780792236328</v>
+        <v>128.7666015625</v>
       </c>
       <c r="H67" t="n">
-        <v>52.45172500610352</v>
+        <v>54.2900276184082</v>
       </c>
       <c r="I67" t="n">
-        <v>15.79538440704346</v>
+        <v>5.0938720703125</v>
       </c>
       <c r="J67" t="n">
-        <v>57.32052993774414</v>
+        <v>67.79900360107422</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>126.8442306518555</v>
+        <v>136.6098785400391</v>
       </c>
       <c r="H68" t="n">
-        <v>52.22272872924805</v>
+        <v>51.77531051635742</v>
       </c>
       <c r="I68" t="n">
-        <v>33.7633056640625</v>
+        <v>23.6847095489502</v>
       </c>
       <c r="J68" t="n">
-        <v>54.74468231201172</v>
+        <v>67.44034576416016</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>136.7505035400391</v>
+        <v>140.4464874267578</v>
       </c>
       <c r="H69" t="n">
-        <v>52.14556884765625</v>
+        <v>52.39780426025391</v>
       </c>
       <c r="I69" t="n">
-        <v>56.84770202636719</v>
+        <v>48.9020881652832</v>
       </c>
       <c r="J69" t="n">
-        <v>54.90792083740234</v>
+        <v>65.80506896972656</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>149.9226684570312</v>
+        <v>143.642333984375</v>
       </c>
       <c r="H70" t="n">
-        <v>50.57496643066406</v>
+        <v>49.93802261352539</v>
       </c>
       <c r="I70" t="n">
-        <v>79.68869018554688</v>
+        <v>87.05087280273438</v>
       </c>
       <c r="J70" t="n">
-        <v>56.22160339355469</v>
+        <v>58.8652458190918</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>10.27148578895017</v>
       </c>
-      <c r="G2" t="n">
-        <v>120.3185653686523</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>51.33816528320312</v>
+        <v>118.8638305664062</v>
       </c>
       <c r="I2" t="n">
-        <v>908.327392578125</v>
+        <v>34.27697372436523</v>
       </c>
       <c r="J2" t="n">
-        <v>75.45453643798828</v>
+        <v>858.7144775390625</v>
+      </c>
+      <c r="K2" t="n">
+        <v>92.62272644042969</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>10.49540628405087</v>
       </c>
-      <c r="G3" t="n">
-        <v>128.1200866699219</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>49.96179962158203</v>
+        <v>120.1267700195312</v>
       </c>
       <c r="I3" t="n">
-        <v>924.7589721679688</v>
+        <v>34.23623275756836</v>
       </c>
       <c r="J3" t="n">
-        <v>67.18148040771484</v>
+        <v>874.7598876953125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>84.41345977783203</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>11.11292799977388</v>
       </c>
-      <c r="G4" t="n">
-        <v>140.4214019775391</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>48.82018661499023</v>
+        <v>126.7211227416992</v>
       </c>
       <c r="I4" t="n">
-        <v>934.8782348632812</v>
+        <v>33.35207748413086</v>
       </c>
       <c r="J4" t="n">
-        <v>73.59346771240234</v>
+        <v>895.6884155273438</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74.89459991455078</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>11.33579528302992</v>
       </c>
-      <c r="G5" t="n">
-        <v>151.8730010986328</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>47.91238403320312</v>
+        <v>131.2890777587891</v>
       </c>
       <c r="I5" t="n">
-        <v>952.1170654296875</v>
+        <v>32.59017562866211</v>
       </c>
       <c r="J5" t="n">
-        <v>67.97515869140625</v>
+        <v>919.1839599609375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.45645904541016</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>11.53221857575777</v>
       </c>
-      <c r="G6" t="n">
-        <v>159.1791229248047</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>47.19430541992188</v>
+        <v>141.2643737792969</v>
       </c>
       <c r="I6" t="n">
-        <v>965.0938720703125</v>
+        <v>31.69363212585449</v>
       </c>
       <c r="J6" t="n">
-        <v>70.20880126953125</v>
+        <v>941.365966796875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>71.31424713134766</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>11.73836346032553</v>
       </c>
-      <c r="G7" t="n">
-        <v>108.6122817993164</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>56.88713073730469</v>
+        <v>112.2830581665039</v>
       </c>
       <c r="I7" t="n">
-        <v>792.8239135742188</v>
+        <v>35.9970703125</v>
       </c>
       <c r="J7" t="n">
-        <v>187.5391387939453</v>
+        <v>762.1988525390625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>153.9095764160156</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>12.47588443056982</v>
       </c>
-      <c r="G8" t="n">
-        <v>119.2869644165039</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>53.55129241943359</v>
+        <v>117.2204666137695</v>
       </c>
       <c r="I8" t="n">
-        <v>911.6047973632812</v>
+        <v>33.5309944152832</v>
       </c>
       <c r="J8" t="n">
-        <v>109.3888626098633</v>
+        <v>887.2483520507812</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95.00678253173828</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>13.31360035996819</v>
       </c>
-      <c r="G9" t="n">
-        <v>121.4654922485352</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>49.3571891784668</v>
+        <v>120.9873580932617</v>
       </c>
       <c r="I9" t="n">
-        <v>957.149169921875</v>
+        <v>33.23044967651367</v>
       </c>
       <c r="J9" t="n">
-        <v>73.33271026611328</v>
+        <v>929.6339721679688</v>
+      </c>
+      <c r="K9" t="n">
+        <v>76.58250427246094</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>14.04586286313179</v>
       </c>
-      <c r="G10" t="n">
-        <v>134.1993560791016</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>45.40293121337891</v>
+        <v>128.4790954589844</v>
       </c>
       <c r="I10" t="n">
-        <v>971.1077270507812</v>
+        <v>32.61215972900391</v>
       </c>
       <c r="J10" t="n">
-        <v>66.74713134765625</v>
+        <v>950.0859375</v>
+      </c>
+      <c r="K10" t="n">
+        <v>66.68173217773438</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>14.78596965177877</v>
       </c>
-      <c r="G11" t="n">
-        <v>146.2842559814453</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>45.09619903564453</v>
+        <v>131.4487609863281</v>
       </c>
       <c r="I11" t="n">
-        <v>981.4216918945312</v>
+        <v>31.60468101501465</v>
       </c>
       <c r="J11" t="n">
-        <v>67.06479644775391</v>
+        <v>960.049560546875</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68.19045257568359</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>14.60750023008277</v>
       </c>
-      <c r="G12" t="n">
-        <v>153.6219329833984</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>43.97338485717773</v>
+        <v>136.5439453125</v>
       </c>
       <c r="I12" t="n">
-        <v>995.1587524414062</v>
+        <v>30.26078796386719</v>
       </c>
       <c r="J12" t="n">
-        <v>73.73963165283203</v>
+        <v>977.762939453125</v>
+      </c>
+      <c r="K12" t="n">
+        <v>68.10939788818359</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>13.93632017907879</v>
       </c>
-      <c r="G13" t="n">
-        <v>162.0804901123047</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>41.58974838256836</v>
+        <v>149.8158111572266</v>
       </c>
       <c r="I13" t="n">
-        <v>1001.450500488281</v>
+        <v>31.8886661529541</v>
       </c>
       <c r="J13" t="n">
-        <v>74.23424530029297</v>
+        <v>993.63720703125</v>
+      </c>
+      <c r="K13" t="n">
+        <v>70.6395263671875</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>13.2060787967079</v>
       </c>
-      <c r="G14" t="n">
-        <v>86.98927307128906</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>63.68297958374023</v>
+        <v>102.5772552490234</v>
       </c>
       <c r="I14" t="n">
-        <v>220.4643249511719</v>
+        <v>36.02167129516602</v>
       </c>
       <c r="J14" t="n">
-        <v>72.64171600341797</v>
+        <v>220.707763671875</v>
+      </c>
+      <c r="K14" t="n">
+        <v>83.05085754394531</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>14.43724685121477</v>
       </c>
-      <c r="G15" t="n">
-        <v>105.7817306518555</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>58.25249481201172</v>
+        <v>110.1122131347656</v>
       </c>
       <c r="I15" t="n">
-        <v>381.7067565917969</v>
+        <v>35.82499694824219</v>
       </c>
       <c r="J15" t="n">
-        <v>148.6807556152344</v>
+        <v>368.935302734375</v>
+      </c>
+      <c r="K15" t="n">
+        <v>145.9175720214844</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>15.77509757365795</v>
       </c>
-      <c r="G16" t="n">
-        <v>112.9301452636719</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>56.98166656494141</v>
+        <v>113.3883819580078</v>
       </c>
       <c r="I16" t="n">
-        <v>684.339599609375</v>
+        <v>33.76934814453125</v>
       </c>
       <c r="J16" t="n">
-        <v>206.8400726318359</v>
+        <v>712.7532348632812</v>
+      </c>
+      <c r="K16" t="n">
+        <v>180.1886444091797</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>17.01643502058164</v>
       </c>
-      <c r="G17" t="n">
-        <v>115.957160949707</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>51.99330520629883</v>
+        <v>120.2009735107422</v>
       </c>
       <c r="I17" t="n">
-        <v>961.392822265625</v>
+        <v>34.96144866943359</v>
       </c>
       <c r="J17" t="n">
-        <v>100.8639678955078</v>
+        <v>965.8198852539062</v>
+      </c>
+      <c r="K17" t="n">
+        <v>77.08805084228516</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>17.57324774662381</v>
       </c>
-      <c r="G18" t="n">
-        <v>123.5768585205078</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>47.71483993530273</v>
+        <v>124.552864074707</v>
       </c>
       <c r="I18" t="n">
-        <v>992.4804077148438</v>
+        <v>33.70281982421875</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74508666992188</v>
+        <v>990.1173095703125</v>
+      </c>
+      <c r="K18" t="n">
+        <v>69.83428192138672</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>18.2282289394109</v>
       </c>
-      <c r="G19" t="n">
-        <v>136.5574188232422</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>47.28726959228516</v>
+        <v>130.9866485595703</v>
       </c>
       <c r="I19" t="n">
-        <v>998.7501220703125</v>
+        <v>32.64903259277344</v>
       </c>
       <c r="J19" t="n">
-        <v>71.39044189453125</v>
+        <v>999.59814453125</v>
+      </c>
+      <c r="K19" t="n">
+        <v>67.39818572998047</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>18.05168677518481</v>
       </c>
-      <c r="G20" t="n">
-        <v>144.4535064697266</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>44.8781852722168</v>
+        <v>133.0936126708984</v>
       </c>
       <c r="I20" t="n">
-        <v>999.7345581054688</v>
+        <v>30.92745590209961</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72501373291016</v>
+        <v>1006.641235351562</v>
+      </c>
+      <c r="K20" t="n">
+        <v>71.42034912109375</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>17.30316829702608</v>
       </c>
-      <c r="G21" t="n">
-        <v>167.9586029052734</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>43.8758544921875</v>
+        <v>146.2837829589844</v>
       </c>
       <c r="I21" t="n">
-        <v>994.2704467773438</v>
+        <v>31.05596160888672</v>
       </c>
       <c r="J21" t="n">
-        <v>71.92481994628906</v>
+        <v>1000.705200195312</v>
+      </c>
+      <c r="K21" t="n">
+        <v>76.96495056152344</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>15.87142913305469</v>
       </c>
-      <c r="G22" t="n">
-        <v>240.5991668701172</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>53.65982437133789</v>
+        <v>187.1282958984375</v>
       </c>
       <c r="I22" t="n">
-        <v>934.3623046875</v>
+        <v>44.01330947875977</v>
       </c>
       <c r="J22" t="n">
-        <v>113.314567565918</v>
+        <v>953.2274169921875</v>
+      </c>
+      <c r="K22" t="n">
+        <v>107.4698867797852</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>16.2842163689804</v>
       </c>
-      <c r="G23" t="n">
-        <v>79.92336273193359</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>64.74912261962891</v>
+        <v>99.13515472412109</v>
       </c>
       <c r="I23" t="n">
-        <v>138.7205352783203</v>
+        <v>36.88859176635742</v>
       </c>
       <c r="J23" t="n">
-        <v>68.54371643066406</v>
+        <v>128.0569000244141</v>
+      </c>
+      <c r="K23" t="n">
+        <v>63.69638442993164</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>17.99859633271077</v>
       </c>
-      <c r="G24" t="n">
-        <v>96.60006713867188</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>59.24879837036133</v>
+        <v>103.6094360351562</v>
       </c>
       <c r="I24" t="n">
-        <v>192.3765563964844</v>
+        <v>36.41856002807617</v>
       </c>
       <c r="J24" t="n">
-        <v>76.48001098632812</v>
+        <v>178.8534851074219</v>
+      </c>
+      <c r="K24" t="n">
+        <v>74.23435974121094</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>19.53665474474453</v>
       </c>
-      <c r="G25" t="n">
-        <v>109.6791915893555</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>56.8497200012207</v>
+        <v>111.1520309448242</v>
       </c>
       <c r="I25" t="n">
-        <v>262.6217956542969</v>
+        <v>34.04777908325195</v>
       </c>
       <c r="J25" t="n">
-        <v>103.8342514038086</v>
+        <v>278.1460266113281</v>
+      </c>
+      <c r="K25" t="n">
+        <v>122.3234100341797</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>21.18080958029204</v>
       </c>
-      <c r="G26" t="n">
-        <v>116.6493377685547</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>54.91080093383789</v>
+        <v>116.6021499633789</v>
       </c>
       <c r="I26" t="n">
-        <v>523.2464599609375</v>
+        <v>33.80199813842773</v>
       </c>
       <c r="J26" t="n">
-        <v>199.9987945556641</v>
+        <v>560.6255493164062</v>
+      </c>
+      <c r="K26" t="n">
+        <v>207.6243896484375</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>22.36133238808863</v>
       </c>
-      <c r="G27" t="n">
-        <v>122.0846710205078</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>49.40182113647461</v>
+        <v>123.8100814819336</v>
       </c>
       <c r="I27" t="n">
-        <v>928.0462646484375</v>
+        <v>32.68898391723633</v>
       </c>
       <c r="J27" t="n">
-        <v>109.254150390625</v>
+        <v>950.1411743164062</v>
+      </c>
+      <c r="K27" t="n">
+        <v>106.522590637207</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>22.25528267810615</v>
       </c>
-      <c r="G28" t="n">
-        <v>123.3160400390625</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>47.29650115966797</v>
+        <v>127.5506134033203</v>
       </c>
       <c r="I28" t="n">
-        <v>995.5755004882812</v>
+        <v>31.00336456298828</v>
       </c>
       <c r="J28" t="n">
-        <v>77.72367858886719</v>
+        <v>1004.154479980469</v>
+      </c>
+      <c r="K28" t="n">
+        <v>73.77674102783203</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>22.11853696692908</v>
       </c>
-      <c r="G29" t="n">
-        <v>136.1210479736328</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>47.09133529663086</v>
+        <v>132.9013214111328</v>
       </c>
       <c r="I29" t="n">
-        <v>991.8770751953125</v>
+        <v>30.66580581665039</v>
       </c>
       <c r="J29" t="n">
-        <v>76.86965179443359</v>
+        <v>999.36376953125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>75.40699005126953</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>21.13587239531939</v>
       </c>
-      <c r="G30" t="n">
-        <v>177.1132507324219</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>42.98609161376953</v>
+        <v>143.5153961181641</v>
       </c>
       <c r="I30" t="n">
-        <v>950.1289672851562</v>
+        <v>31.3513069152832</v>
       </c>
       <c r="J30" t="n">
-        <v>88.63309478759766</v>
+        <v>972.8688354492188</v>
+      </c>
+      <c r="K30" t="n">
+        <v>92.02192687988281</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>19.80061812897557</v>
       </c>
-      <c r="G31" t="n">
-        <v>252.3728637695312</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>55.29160308837891</v>
+        <v>191.8084564208984</v>
       </c>
       <c r="I31" t="n">
-        <v>795.3470458984375</v>
+        <v>46.83877182006836</v>
       </c>
       <c r="J31" t="n">
-        <v>193.8537902832031</v>
+        <v>826.5907592773438</v>
+      </c>
+      <c r="K31" t="n">
+        <v>185.3525238037109</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>20.55168297688286</v>
       </c>
-      <c r="G32" t="n">
-        <v>72.68697357177734</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>65.55715179443359</v>
+        <v>94.39398956298828</v>
       </c>
       <c r="I32" t="n">
-        <v>102.049072265625</v>
+        <v>38.28688049316406</v>
       </c>
       <c r="J32" t="n">
-        <v>59.64172744750977</v>
+        <v>90.58832550048828</v>
+      </c>
+      <c r="K32" t="n">
+        <v>51.2208251953125</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>22.96934284445093</v>
       </c>
-      <c r="G33" t="n">
-        <v>87.34041595458984</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>60.97187423706055</v>
+        <v>98.28379058837891</v>
       </c>
       <c r="I33" t="n">
-        <v>130.174072265625</v>
+        <v>38.46408081054688</v>
       </c>
       <c r="J33" t="n">
-        <v>58.98943328857422</v>
+        <v>117.2492218017578</v>
+      </c>
+      <c r="K33" t="n">
+        <v>54.85134506225586</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>24.40915250803127</v>
       </c>
-      <c r="G34" t="n">
-        <v>105.1476211547852</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>56.8724250793457</v>
+        <v>105.6869201660156</v>
       </c>
       <c r="I34" t="n">
-        <v>156.43896484375</v>
+        <v>37.41734313964844</v>
       </c>
       <c r="J34" t="n">
-        <v>65.77896881103516</v>
+        <v>142.1309509277344</v>
+      </c>
+      <c r="K34" t="n">
+        <v>58.25831985473633</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>26.0811880993595</v>
       </c>
-      <c r="G35" t="n">
-        <v>110.5898666381836</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>55.99576568603516</v>
+        <v>113.9141159057617</v>
       </c>
       <c r="I35" t="n">
-        <v>202.9340515136719</v>
+        <v>34.43567276000977</v>
       </c>
       <c r="J35" t="n">
-        <v>89.51753234863281</v>
+        <v>203.2356262207031</v>
+      </c>
+      <c r="K35" t="n">
+        <v>83.82655334472656</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>26.87614780904968</v>
       </c>
-      <c r="G36" t="n">
-        <v>119.8501586914062</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>50.93099212646484</v>
+        <v>120.577522277832</v>
       </c>
       <c r="I36" t="n">
-        <v>355.6604309082031</v>
+        <v>33.26338958740234</v>
       </c>
       <c r="J36" t="n">
-        <v>168.393310546875</v>
+        <v>389.5570068359375</v>
+      </c>
+      <c r="K36" t="n">
+        <v>175.9506225585938</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>27.16629873490772</v>
       </c>
-      <c r="G37" t="n">
-        <v>121.990234375</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>50.68232727050781</v>
+        <v>124.5820159912109</v>
       </c>
       <c r="I37" t="n">
-        <v>599.4033203125</v>
+        <v>32.61358642578125</v>
       </c>
       <c r="J37" t="n">
-        <v>221.0245971679688</v>
+        <v>603.8646850585938</v>
+      </c>
+      <c r="K37" t="n">
+        <v>225.3360900878906</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>27.25598473560972</v>
       </c>
-      <c r="G38" t="n">
-        <v>141.6993103027344</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>46.33710861206055</v>
+        <v>134.0574798583984</v>
       </c>
       <c r="I38" t="n">
-        <v>830.5282592773438</v>
+        <v>31.80981063842773</v>
       </c>
       <c r="J38" t="n">
-        <v>191.3769378662109</v>
+        <v>847.959716796875</v>
+      </c>
+      <c r="K38" t="n">
+        <v>175.8446350097656</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>26.04628332899345</v>
       </c>
-      <c r="G39" t="n">
-        <v>182.1460418701172</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>44.83121871948242</v>
+        <v>141.0572967529297</v>
       </c>
       <c r="I39" t="n">
-        <v>741.4689331054688</v>
+        <v>32.60380172729492</v>
       </c>
       <c r="J39" t="n">
-        <v>209.0844421386719</v>
+        <v>753.8219604492188</v>
+      </c>
+      <c r="K39" t="n">
+        <v>227.2182769775391</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>23.96978635149335</v>
       </c>
-      <c r="G40" t="n">
-        <v>260.0785217285156</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>59.96488571166992</v>
+        <v>192.5238647460938</v>
       </c>
       <c r="I40" t="n">
-        <v>651.478271484375</v>
+        <v>51.42691421508789</v>
       </c>
       <c r="J40" t="n">
-        <v>235.9860229492188</v>
+        <v>698.4577026367188</v>
+      </c>
+      <c r="K40" t="n">
+        <v>241.3452301025391</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>25.6116837653232</v>
       </c>
-      <c r="G41" t="n">
-        <v>70.14675140380859</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>65.61928558349609</v>
+        <v>92.63822174072266</v>
       </c>
       <c r="I41" t="n">
-        <v>79.23988342285156</v>
+        <v>39.50372314453125</v>
       </c>
       <c r="J41" t="n">
-        <v>49.16725540161133</v>
+        <v>70.88271331787109</v>
+      </c>
+      <c r="K41" t="n">
+        <v>47.35315322875977</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>28.41067839248494</v>
       </c>
-      <c r="G42" t="n">
-        <v>92.52615356445312</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>59.54773712158203</v>
+        <v>99.60007476806641</v>
       </c>
       <c r="I42" t="n">
-        <v>95.64183807373047</v>
+        <v>36.58998870849609</v>
       </c>
       <c r="J42" t="n">
-        <v>45.88702011108398</v>
+        <v>87.70719146728516</v>
+      </c>
+      <c r="K42" t="n">
+        <v>47.18294143676758</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>30.68040031937237</v>
       </c>
-      <c r="G43" t="n">
-        <v>99.47486114501953</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>57.08783721923828</v>
+        <v>102.7639694213867</v>
       </c>
       <c r="I43" t="n">
-        <v>116.1713943481445</v>
+        <v>36.22325134277344</v>
       </c>
       <c r="J43" t="n">
-        <v>49.20050048828125</v>
+        <v>107.7278442382812</v>
+      </c>
+      <c r="K43" t="n">
+        <v>48.65028762817383</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>32.34762367758118</v>
       </c>
-      <c r="G44" t="n">
-        <v>108.8616638183594</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>54.52046585083008</v>
+        <v>109.5073699951172</v>
       </c>
       <c r="I44" t="n">
-        <v>138.7246704101562</v>
+        <v>34.16993713378906</v>
       </c>
       <c r="J44" t="n">
-        <v>55.91660308837891</v>
+        <v>133.3321990966797</v>
+      </c>
+      <c r="K44" t="n">
+        <v>51.39777755737305</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>33.26712421235609</v>
       </c>
-      <c r="G45" t="n">
-        <v>120.5593338012695</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>51.93071365356445</v>
+        <v>115.8076934814453</v>
       </c>
       <c r="I45" t="n">
-        <v>165.7339782714844</v>
+        <v>33.29545211791992</v>
       </c>
       <c r="J45" t="n">
-        <v>69.38951873779297</v>
+        <v>165.0751342773438</v>
+      </c>
+      <c r="K45" t="n">
+        <v>65.29312133789062</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>33.39925272231932</v>
       </c>
-      <c r="G46" t="n">
-        <v>123.8721466064453</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>48.88818359375</v>
+        <v>124.0506134033203</v>
       </c>
       <c r="I46" t="n">
-        <v>215.1921081542969</v>
+        <v>31.58661651611328</v>
       </c>
       <c r="J46" t="n">
-        <v>97.19090270996094</v>
+        <v>227.99072265625</v>
+      </c>
+      <c r="K46" t="n">
+        <v>119.765983581543</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>32.83385481517335</v>
       </c>
-      <c r="G47" t="n">
-        <v>140.0624847412109</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>48.03036880493164</v>
+        <v>131.6404418945312</v>
       </c>
       <c r="I47" t="n">
-        <v>303.3778076171875</v>
+        <v>31.69956970214844</v>
       </c>
       <c r="J47" t="n">
-        <v>174.3592224121094</v>
+        <v>337.3269653320312</v>
+      </c>
+      <c r="K47" t="n">
+        <v>190.2342681884766</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>31.22587875804939</v>
       </c>
-      <c r="G48" t="n">
-        <v>186.1671600341797</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>45.71096801757812</v>
+        <v>138.8343200683594</v>
       </c>
       <c r="I48" t="n">
-        <v>448.2681884765625</v>
+        <v>32.59955215454102</v>
       </c>
       <c r="J48" t="n">
-        <v>214.2402038574219</v>
+        <v>530.6865234375</v>
+      </c>
+      <c r="K48" t="n">
+        <v>249.8167724609375</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>28.00050845971687</v>
       </c>
-      <c r="G49" t="n">
-        <v>260.1891784667969</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>60.5909423828125</v>
+        <v>197.8392791748047</v>
       </c>
       <c r="I49" t="n">
-        <v>490.5549011230469</v>
+        <v>55.08212661743164</v>
       </c>
       <c r="J49" t="n">
-        <v>223.7985382080078</v>
+        <v>591.3186645507812</v>
+      </c>
+      <c r="K49" t="n">
+        <v>252.6813201904297</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>32.75859992753161</v>
       </c>
-      <c r="G50" t="n">
-        <v>83.8558349609375</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>63.58385467529297</v>
+        <v>94.08869171142578</v>
       </c>
       <c r="I50" t="n">
-        <v>62.61921691894531</v>
+        <v>38.631103515625</v>
       </c>
       <c r="J50" t="n">
-        <v>46.19933319091797</v>
+        <v>52.59297180175781</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44.24913024902344</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>35.60454595063857</v>
       </c>
-      <c r="G51" t="n">
-        <v>99.84407806396484</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>58.22556686401367</v>
+        <v>99.72000885009766</v>
       </c>
       <c r="I51" t="n">
-        <v>74.65748596191406</v>
+        <v>37.1656608581543</v>
       </c>
       <c r="J51" t="n">
-        <v>47.42929077148438</v>
+        <v>67.10169219970703</v>
+      </c>
+      <c r="K51" t="n">
+        <v>42.56582641601562</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>38.13811789539464</v>
       </c>
-      <c r="G52" t="n">
-        <v>106.7010192871094</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>56.95830154418945</v>
+        <v>104.4701080322266</v>
       </c>
       <c r="I52" t="n">
-        <v>86.21430206298828</v>
+        <v>36.62438583374023</v>
       </c>
       <c r="J52" t="n">
-        <v>42.8042106628418</v>
+        <v>79.51478576660156</v>
+      </c>
+      <c r="K52" t="n">
+        <v>42.55865859985352</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>39.1380055059179</v>
       </c>
-      <c r="G53" t="n">
-        <v>112.2774124145508</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>57.71130752563477</v>
+        <v>108.557991027832</v>
       </c>
       <c r="I53" t="n">
-        <v>101.5294036865234</v>
+        <v>35.71990585327148</v>
       </c>
       <c r="J53" t="n">
-        <v>45.67904281616211</v>
+        <v>99.17670440673828</v>
+      </c>
+      <c r="K53" t="n">
+        <v>45.26908111572266</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>40.17007780104868</v>
       </c>
-      <c r="G54" t="n">
-        <v>118.5933456420898</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>52.22661209106445</v>
+        <v>114.3970947265625</v>
       </c>
       <c r="I54" t="n">
-        <v>115.3273315429688</v>
+        <v>35.25939559936523</v>
       </c>
       <c r="J54" t="n">
-        <v>51.42173767089844</v>
+        <v>120.3134765625</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.16759872436523</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>40.31777520333784</v>
       </c>
-      <c r="G55" t="n">
-        <v>127.816535949707</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>51.59521484375</v>
+        <v>120.6078643798828</v>
       </c>
       <c r="I55" t="n">
-        <v>124.5478515625</v>
+        <v>33.48487091064453</v>
       </c>
       <c r="J55" t="n">
-        <v>49.72455978393555</v>
+        <v>138.3305053710938</v>
+      </c>
+      <c r="K55" t="n">
+        <v>49.74264144897461</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>38.89328689858721</v>
       </c>
-      <c r="G56" t="n">
-        <v>138.0872650146484</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>48.92479705810547</v>
+        <v>128.2426300048828</v>
       </c>
       <c r="I56" t="n">
-        <v>159.0879516601562</v>
+        <v>31.68664360046387</v>
       </c>
       <c r="J56" t="n">
-        <v>63.74288940429688</v>
+        <v>161.1460418701172</v>
+      </c>
+      <c r="K56" t="n">
+        <v>67.57977294921875</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>36.03490394546852</v>
       </c>
-      <c r="G57" t="n">
-        <v>179.7135467529297</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>47.93361663818359</v>
+        <v>136.4908142089844</v>
       </c>
       <c r="I57" t="n">
-        <v>286.8977355957031</v>
+        <v>32.753662109375</v>
       </c>
       <c r="J57" t="n">
-        <v>167.7454681396484</v>
+        <v>338.4450073242188</v>
+      </c>
+      <c r="K57" t="n">
+        <v>198.0483245849609</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>33.0417017672229</v>
       </c>
-      <c r="G58" t="n">
-        <v>254.7040863037109</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>60.42980194091797</v>
+        <v>199.1838836669922</v>
       </c>
       <c r="I58" t="n">
-        <v>393.4307556152344</v>
+        <v>56.18274688720703</v>
       </c>
       <c r="J58" t="n">
-        <v>197.5889129638672</v>
+        <v>504.2042846679688</v>
+      </c>
+      <c r="K58" t="n">
+        <v>249.6324310302734</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>43.98768298598323</v>
       </c>
-      <c r="G59" t="n">
-        <v>105.2005310058594</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>56.74905014038086</v>
+        <v>102.1817245483398</v>
       </c>
       <c r="I59" t="n">
-        <v>47.08115005493164</v>
+        <v>36.69232559204102</v>
       </c>
       <c r="J59" t="n">
-        <v>50.65904998779297</v>
+        <v>37.75665664672852</v>
+      </c>
+      <c r="K59" t="n">
+        <v>43.49024200439453</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>45.7006317110727</v>
       </c>
-      <c r="G60" t="n">
-        <v>109.6060180664062</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>55.29151153564453</v>
+        <v>105.0712203979492</v>
       </c>
       <c r="I60" t="n">
-        <v>53.61154556274414</v>
+        <v>36.10394287109375</v>
       </c>
       <c r="J60" t="n">
-        <v>52.43595123291016</v>
+        <v>49.35748291015625</v>
+      </c>
+      <c r="K60" t="n">
+        <v>45.03043746948242</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>46.67965674781412</v>
       </c>
-      <c r="G61" t="n">
-        <v>119.6881484985352</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>56.05810546875</v>
+        <v>106.9092330932617</v>
       </c>
       <c r="I61" t="n">
-        <v>67.80746459960938</v>
+        <v>35.89054489135742</v>
       </c>
       <c r="J61" t="n">
-        <v>51.63030242919922</v>
+        <v>69.87257385253906</v>
+      </c>
+      <c r="K61" t="n">
+        <v>46.11134719848633</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>47.53914448671719</v>
       </c>
-      <c r="G62" t="n">
-        <v>123.4213409423828</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>53.27846145629883</v>
+        <v>113.3756256103516</v>
       </c>
       <c r="I62" t="n">
-        <v>73.38685607910156</v>
+        <v>34.18567657470703</v>
       </c>
       <c r="J62" t="n">
-        <v>51.74182510375977</v>
+        <v>85.02638244628906</v>
+      </c>
+      <c r="K62" t="n">
+        <v>49.08358764648438</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>47.07121651777462</v>
       </c>
-      <c r="G63" t="n">
-        <v>129.5427856445312</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>51.90166854858398</v>
+        <v>120.4103775024414</v>
       </c>
       <c r="I63" t="n">
-        <v>87.52734375</v>
+        <v>33.97590637207031</v>
       </c>
       <c r="J63" t="n">
-        <v>52.86672973632812</v>
+        <v>100.6884155273438</v>
+      </c>
+      <c r="K63" t="n">
+        <v>46.44940567016602</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>45.67156598130153</v>
       </c>
-      <c r="G64" t="n">
-        <v>139.6780242919922</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>49.42075729370117</v>
+        <v>128.3719787597656</v>
       </c>
       <c r="I64" t="n">
-        <v>118.8957290649414</v>
+        <v>32.31623458862305</v>
       </c>
       <c r="J64" t="n">
-        <v>56.42921447753906</v>
+        <v>119.7925415039062</v>
+      </c>
+      <c r="K64" t="n">
+        <v>50.08590698242188</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>42.51104340916319</v>
       </c>
-      <c r="G65" t="n">
-        <v>175.1767120361328</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>49.15948867797852</v>
+        <v>136.5157775878906</v>
       </c>
       <c r="I65" t="n">
-        <v>178.6005401611328</v>
+        <v>32.4376335144043</v>
       </c>
       <c r="J65" t="n">
-        <v>114.2961654663086</v>
+        <v>166.2711029052734</v>
+      </c>
+      <c r="K65" t="n">
+        <v>98.36209106445312</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>54.37577254606605</v>
       </c>
-      <c r="G66" t="n">
-        <v>125.6200103759766</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>53.52191925048828</v>
+        <v>111.2894515991211</v>
       </c>
       <c r="I66" t="n">
-        <v>-6.995287895202637</v>
+        <v>35.83821105957031</v>
       </c>
       <c r="J66" t="n">
-        <v>71.50479888916016</v>
+        <v>0.2774904072284698</v>
+      </c>
+      <c r="K66" t="n">
+        <v>53.11002349853516</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>55.07062752917076</v>
       </c>
-      <c r="G67" t="n">
-        <v>128.7666015625</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>54.2900276184082</v>
+        <v>113.0118865966797</v>
       </c>
       <c r="I67" t="n">
-        <v>5.0938720703125</v>
+        <v>35.32876205444336</v>
       </c>
       <c r="J67" t="n">
-        <v>67.79900360107422</v>
+        <v>19.60627365112305</v>
+      </c>
+      <c r="K67" t="n">
+        <v>57.44183731079102</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>54.82432856758766</v>
       </c>
-      <c r="G68" t="n">
-        <v>136.6098785400391</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>51.77531051635742</v>
+        <v>115.5996780395508</v>
       </c>
       <c r="I68" t="n">
-        <v>23.6847095489502</v>
+        <v>35.11323547363281</v>
       </c>
       <c r="J68" t="n">
-        <v>67.44034576416016</v>
+        <v>43.5309944152832</v>
+      </c>
+      <c r="K68" t="n">
+        <v>55.1658935546875</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>54.18769809434324</v>
       </c>
-      <c r="G69" t="n">
-        <v>140.4464874267578</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>52.39780426025391</v>
+        <v>119.6673965454102</v>
       </c>
       <c r="I69" t="n">
-        <v>48.9020881652832</v>
+        <v>34.67095184326172</v>
       </c>
       <c r="J69" t="n">
-        <v>65.80506896972656</v>
+        <v>68.33840179443359</v>
+      </c>
+      <c r="K69" t="n">
+        <v>54.79004669189453</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>51.347187815424</v>
       </c>
-      <c r="G70" t="n">
-        <v>143.642333984375</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>49.93802261352539</v>
+        <v>126.1433334350586</v>
       </c>
       <c r="I70" t="n">
-        <v>87.05087280273438</v>
+        <v>33.60776901245117</v>
       </c>
       <c r="J70" t="n">
-        <v>58.8652458190918</v>
+        <v>92.87453460693359</v>
+      </c>
+      <c r="K70" t="n">
+        <v>50.51351928710938</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>118.8638305664062</v>
+        <v>118.4428100585938</v>
       </c>
       <c r="I2" t="n">
-        <v>34.27697372436523</v>
+        <v>34.18404006958008</v>
       </c>
       <c r="J2" t="n">
-        <v>858.7144775390625</v>
+        <v>857.741943359375</v>
       </c>
       <c r="K2" t="n">
-        <v>92.62272644042969</v>
+        <v>87.0111083984375</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>120.1267700195312</v>
+        <v>121.999397277832</v>
       </c>
       <c r="I3" t="n">
-        <v>34.23623275756836</v>
+        <v>34.64781188964844</v>
       </c>
       <c r="J3" t="n">
-        <v>874.7598876953125</v>
+        <v>878.2392578125</v>
       </c>
       <c r="K3" t="n">
-        <v>84.41345977783203</v>
+        <v>81.30155181884766</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>126.7211227416992</v>
+        <v>126.8091278076172</v>
       </c>
       <c r="I4" t="n">
-        <v>33.35207748413086</v>
+        <v>31.70864868164062</v>
       </c>
       <c r="J4" t="n">
-        <v>895.6884155273438</v>
+        <v>894.0111694335938</v>
       </c>
       <c r="K4" t="n">
-        <v>74.89459991455078</v>
+        <v>76.46246337890625</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>131.2890777587891</v>
+        <v>134.4347229003906</v>
       </c>
       <c r="I5" t="n">
-        <v>32.59017562866211</v>
+        <v>31.81760597229004</v>
       </c>
       <c r="J5" t="n">
-        <v>919.1839599609375</v>
+        <v>920.1943969726562</v>
       </c>
       <c r="K5" t="n">
-        <v>66.45645904541016</v>
+        <v>72.25498199462891</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>141.2643737792969</v>
+        <v>145.6446533203125</v>
       </c>
       <c r="I6" t="n">
-        <v>31.69363212585449</v>
+        <v>32.626220703125</v>
       </c>
       <c r="J6" t="n">
-        <v>941.365966796875</v>
+        <v>943.5396728515625</v>
       </c>
       <c r="K6" t="n">
-        <v>71.31424713134766</v>
+        <v>72.11150360107422</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>112.2830581665039</v>
+        <v>110.9878768920898</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9970703125</v>
+        <v>33.84450149536133</v>
       </c>
       <c r="J7" t="n">
-        <v>762.1988525390625</v>
+        <v>766.6854858398438</v>
       </c>
       <c r="K7" t="n">
-        <v>153.9095764160156</v>
+        <v>153.2557525634766</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>117.2204666137695</v>
+        <v>116.042106628418</v>
       </c>
       <c r="I8" t="n">
-        <v>33.5309944152832</v>
+        <v>34.25952529907227</v>
       </c>
       <c r="J8" t="n">
-        <v>887.2483520507812</v>
+        <v>884.8004150390625</v>
       </c>
       <c r="K8" t="n">
-        <v>95.00678253173828</v>
+        <v>96.74860382080078</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>120.9873580932617</v>
+        <v>121.9907531738281</v>
       </c>
       <c r="I9" t="n">
-        <v>33.23044967651367</v>
+        <v>33.72673034667969</v>
       </c>
       <c r="J9" t="n">
-        <v>929.6339721679688</v>
+        <v>925.8900756835938</v>
       </c>
       <c r="K9" t="n">
-        <v>76.58250427246094</v>
+        <v>78.90843200683594</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>128.4790954589844</v>
+        <v>128.3825073242188</v>
       </c>
       <c r="I10" t="n">
-        <v>32.61215972900391</v>
+        <v>32.91729354858398</v>
       </c>
       <c r="J10" t="n">
-        <v>950.0859375</v>
+        <v>950.62353515625</v>
       </c>
       <c r="K10" t="n">
-        <v>66.68173217773438</v>
+        <v>67.8857421875</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>131.4487609863281</v>
+        <v>131.5879516601562</v>
       </c>
       <c r="I11" t="n">
-        <v>31.60468101501465</v>
+        <v>31.62319755554199</v>
       </c>
       <c r="J11" t="n">
-        <v>960.049560546875</v>
+        <v>962.9686279296875</v>
       </c>
       <c r="K11" t="n">
-        <v>68.19045257568359</v>
+        <v>68.37197113037109</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>136.5439453125</v>
+        <v>137.4372711181641</v>
       </c>
       <c r="I12" t="n">
-        <v>30.26078796386719</v>
+        <v>30.82061004638672</v>
       </c>
       <c r="J12" t="n">
-        <v>977.762939453125</v>
+        <v>975.9290771484375</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10939788818359</v>
+        <v>66.76145172119141</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>149.8158111572266</v>
+        <v>148.5022735595703</v>
       </c>
       <c r="I13" t="n">
-        <v>31.8886661529541</v>
+        <v>29.69144439697266</v>
       </c>
       <c r="J13" t="n">
-        <v>993.63720703125</v>
+        <v>992.6813354492188</v>
       </c>
       <c r="K13" t="n">
-        <v>70.6395263671875</v>
+        <v>68.17915344238281</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>102.5772552490234</v>
+        <v>102.9222793579102</v>
       </c>
       <c r="I14" t="n">
-        <v>36.02167129516602</v>
+        <v>37.31723785400391</v>
       </c>
       <c r="J14" t="n">
-        <v>220.707763671875</v>
+        <v>219.8034820556641</v>
       </c>
       <c r="K14" t="n">
-        <v>83.05085754394531</v>
+        <v>81.66786193847656</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>110.1122131347656</v>
+        <v>108.8501586914062</v>
       </c>
       <c r="I15" t="n">
-        <v>35.82499694824219</v>
+        <v>34.80561447143555</v>
       </c>
       <c r="J15" t="n">
-        <v>368.935302734375</v>
+        <v>370.2376098632812</v>
       </c>
       <c r="K15" t="n">
-        <v>145.9175720214844</v>
+        <v>147.8301849365234</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>113.3883819580078</v>
+        <v>113.8539428710938</v>
       </c>
       <c r="I16" t="n">
-        <v>33.76934814453125</v>
+        <v>34.21263122558594</v>
       </c>
       <c r="J16" t="n">
-        <v>712.7532348632812</v>
+        <v>716.8641967773438</v>
       </c>
       <c r="K16" t="n">
-        <v>180.1886444091797</v>
+        <v>179.9736938476562</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>120.2009735107422</v>
+        <v>119.1212921142578</v>
       </c>
       <c r="I17" t="n">
-        <v>34.96144866943359</v>
+        <v>33.88113784790039</v>
       </c>
       <c r="J17" t="n">
-        <v>965.8198852539062</v>
+        <v>970.0611572265625</v>
       </c>
       <c r="K17" t="n">
-        <v>77.08805084228516</v>
+        <v>78.07504272460938</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>124.552864074707</v>
+        <v>123.7638244628906</v>
       </c>
       <c r="I18" t="n">
-        <v>33.70281982421875</v>
+        <v>32.21989059448242</v>
       </c>
       <c r="J18" t="n">
-        <v>990.1173095703125</v>
+        <v>990.9213256835938</v>
       </c>
       <c r="K18" t="n">
-        <v>69.83428192138672</v>
+        <v>67.43825531005859</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>130.9866485595703</v>
+        <v>129.2051086425781</v>
       </c>
       <c r="I19" t="n">
-        <v>32.64903259277344</v>
+        <v>30.81233596801758</v>
       </c>
       <c r="J19" t="n">
-        <v>999.59814453125</v>
+        <v>999.105712890625</v>
       </c>
       <c r="K19" t="n">
-        <v>67.39818572998047</v>
+        <v>69.65053558349609</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>133.0936126708984</v>
+        <v>134.3306427001953</v>
       </c>
       <c r="I20" t="n">
-        <v>30.92745590209961</v>
+        <v>30.26869964599609</v>
       </c>
       <c r="J20" t="n">
-        <v>1006.641235351562</v>
+        <v>1002.742492675781</v>
       </c>
       <c r="K20" t="n">
-        <v>71.42034912109375</v>
+        <v>70.4556884765625</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>146.2837829589844</v>
+        <v>145.6401062011719</v>
       </c>
       <c r="I21" t="n">
-        <v>31.05596160888672</v>
+        <v>31.15271949768066</v>
       </c>
       <c r="J21" t="n">
-        <v>1000.705200195312</v>
+        <v>1001.598327636719</v>
       </c>
       <c r="K21" t="n">
-        <v>76.96495056152344</v>
+        <v>75.96923828125</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>187.1282958984375</v>
+        <v>187.3352661132812</v>
       </c>
       <c r="I22" t="n">
-        <v>44.01330947875977</v>
+        <v>45.7000732421875</v>
       </c>
       <c r="J22" t="n">
-        <v>953.2274169921875</v>
+        <v>955.6204223632812</v>
       </c>
       <c r="K22" t="n">
-        <v>107.4698867797852</v>
+        <v>113.9427032470703</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>99.13515472412109</v>
+        <v>98.74852752685547</v>
       </c>
       <c r="I23" t="n">
-        <v>36.88859176635742</v>
+        <v>37.01226806640625</v>
       </c>
       <c r="J23" t="n">
-        <v>128.0569000244141</v>
+        <v>128.2556304931641</v>
       </c>
       <c r="K23" t="n">
-        <v>63.69638442993164</v>
+        <v>61.4937629699707</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>103.6094360351562</v>
+        <v>104.0298843383789</v>
       </c>
       <c r="I24" t="n">
-        <v>36.41856002807617</v>
+        <v>35.9904670715332</v>
       </c>
       <c r="J24" t="n">
-        <v>178.8534851074219</v>
+        <v>181.7557220458984</v>
       </c>
       <c r="K24" t="n">
-        <v>74.23435974121094</v>
+        <v>71.97923278808594</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>111.1520309448242</v>
+        <v>110.2619247436523</v>
       </c>
       <c r="I25" t="n">
-        <v>34.04777908325195</v>
+        <v>34.29976654052734</v>
       </c>
       <c r="J25" t="n">
-        <v>278.1460266113281</v>
+        <v>276.4682922363281</v>
       </c>
       <c r="K25" t="n">
-        <v>122.3234100341797</v>
+        <v>121.5135192871094</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>116.6021499633789</v>
+        <v>116.6527481079102</v>
       </c>
       <c r="I26" t="n">
-        <v>33.80199813842773</v>
+        <v>33.11418533325195</v>
       </c>
       <c r="J26" t="n">
-        <v>560.6255493164062</v>
+        <v>566.8973999023438</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6243896484375</v>
+        <v>209.4332885742188</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>123.8100814819336</v>
+        <v>122.7357559204102</v>
       </c>
       <c r="I27" t="n">
-        <v>32.68898391723633</v>
+        <v>33.0386962890625</v>
       </c>
       <c r="J27" t="n">
-        <v>950.1411743164062</v>
+        <v>957.419677734375</v>
       </c>
       <c r="K27" t="n">
-        <v>106.522590637207</v>
+        <v>97.90117645263672</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>127.5506134033203</v>
+        <v>128.4913787841797</v>
       </c>
       <c r="I28" t="n">
-        <v>31.00336456298828</v>
+        <v>33.08745193481445</v>
       </c>
       <c r="J28" t="n">
-        <v>1004.154479980469</v>
+        <v>1004.104370117188</v>
       </c>
       <c r="K28" t="n">
-        <v>73.77674102783203</v>
+        <v>75.52542877197266</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>132.9013214111328</v>
+        <v>133.4131164550781</v>
       </c>
       <c r="I29" t="n">
-        <v>30.66580581665039</v>
+        <v>30.92526626586914</v>
       </c>
       <c r="J29" t="n">
-        <v>999.36376953125</v>
+        <v>1000.609985351562</v>
       </c>
       <c r="K29" t="n">
-        <v>75.40699005126953</v>
+        <v>75.27967071533203</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>143.5153961181641</v>
+        <v>142.43115234375</v>
       </c>
       <c r="I30" t="n">
-        <v>31.3513069152832</v>
+        <v>31.06098365783691</v>
       </c>
       <c r="J30" t="n">
-        <v>972.8688354492188</v>
+        <v>966.0943603515625</v>
       </c>
       <c r="K30" t="n">
-        <v>92.02192687988281</v>
+        <v>102.4644088745117</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>191.8084564208984</v>
+        <v>191.6877593994141</v>
       </c>
       <c r="I31" t="n">
-        <v>46.83877182006836</v>
+        <v>45.73272705078125</v>
       </c>
       <c r="J31" t="n">
-        <v>826.5907592773438</v>
+        <v>831.1239013671875</v>
       </c>
       <c r="K31" t="n">
-        <v>185.3525238037109</v>
+        <v>192.5412139892578</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>94.39398956298828</v>
+        <v>95.79714202880859</v>
       </c>
       <c r="I32" t="n">
-        <v>38.28688049316406</v>
+        <v>38.35403823852539</v>
       </c>
       <c r="J32" t="n">
-        <v>90.58832550048828</v>
+        <v>90.09603881835938</v>
       </c>
       <c r="K32" t="n">
-        <v>51.2208251953125</v>
+        <v>52.35781478881836</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>98.28379058837891</v>
+        <v>102.0005111694336</v>
       </c>
       <c r="I33" t="n">
-        <v>38.46408081054688</v>
+        <v>36.05531311035156</v>
       </c>
       <c r="J33" t="n">
-        <v>117.2492218017578</v>
+        <v>116.1716918945312</v>
       </c>
       <c r="K33" t="n">
-        <v>54.85134506225586</v>
+        <v>51.47409057617188</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>105.6869201660156</v>
+        <v>106.6948928833008</v>
       </c>
       <c r="I34" t="n">
-        <v>37.41734313964844</v>
+        <v>35.28711700439453</v>
       </c>
       <c r="J34" t="n">
-        <v>142.1309509277344</v>
+        <v>148.0677185058594</v>
       </c>
       <c r="K34" t="n">
-        <v>58.25831985473633</v>
+        <v>62.14702224731445</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>113.9141159057617</v>
+        <v>115.2602767944336</v>
       </c>
       <c r="I35" t="n">
-        <v>34.43567276000977</v>
+        <v>33.82598876953125</v>
       </c>
       <c r="J35" t="n">
-        <v>203.2356262207031</v>
+        <v>205.9893951416016</v>
       </c>
       <c r="K35" t="n">
-        <v>83.82655334472656</v>
+        <v>87.68625640869141</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>120.577522277832</v>
+        <v>119.2525787353516</v>
       </c>
       <c r="I36" t="n">
-        <v>33.26338958740234</v>
+        <v>32.19734954833984</v>
       </c>
       <c r="J36" t="n">
-        <v>389.5570068359375</v>
+        <v>383.8537902832031</v>
       </c>
       <c r="K36" t="n">
-        <v>175.9506225585938</v>
+        <v>168.472900390625</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>124.5820159912109</v>
+        <v>128.5198822021484</v>
       </c>
       <c r="I37" t="n">
-        <v>32.61358642578125</v>
+        <v>32.06418609619141</v>
       </c>
       <c r="J37" t="n">
-        <v>603.8646850585938</v>
+        <v>595.9086303710938</v>
       </c>
       <c r="K37" t="n">
-        <v>225.3360900878906</v>
+        <v>227.1805725097656</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>134.0574798583984</v>
+        <v>133.8685302734375</v>
       </c>
       <c r="I38" t="n">
-        <v>31.80981063842773</v>
+        <v>31.7247200012207</v>
       </c>
       <c r="J38" t="n">
-        <v>847.959716796875</v>
+        <v>839.552734375</v>
       </c>
       <c r="K38" t="n">
-        <v>175.8446350097656</v>
+        <v>182.6468658447266</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>141.0572967529297</v>
+        <v>143.1067352294922</v>
       </c>
       <c r="I39" t="n">
-        <v>32.60380172729492</v>
+        <v>32.2547492980957</v>
       </c>
       <c r="J39" t="n">
-        <v>753.8219604492188</v>
+        <v>759.6878662109375</v>
       </c>
       <c r="K39" t="n">
-        <v>227.2182769775391</v>
+        <v>222.3312225341797</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>192.5238647460938</v>
+        <v>196.5372009277344</v>
       </c>
       <c r="I40" t="n">
-        <v>51.42691421508789</v>
+        <v>52.65436935424805</v>
       </c>
       <c r="J40" t="n">
-        <v>698.4577026367188</v>
+        <v>694.9717407226562</v>
       </c>
       <c r="K40" t="n">
-        <v>241.3452301025391</v>
+        <v>239.1098175048828</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>92.63822174072266</v>
+        <v>92.79508972167969</v>
       </c>
       <c r="I41" t="n">
-        <v>39.50372314453125</v>
+        <v>39.17649078369141</v>
       </c>
       <c r="J41" t="n">
-        <v>70.88271331787109</v>
+        <v>69.56349945068359</v>
       </c>
       <c r="K41" t="n">
-        <v>47.35315322875977</v>
+        <v>46.74515533447266</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>99.60007476806641</v>
+        <v>98.86902618408203</v>
       </c>
       <c r="I42" t="n">
-        <v>36.58998870849609</v>
+        <v>36.60278701782227</v>
       </c>
       <c r="J42" t="n">
-        <v>87.70719146728516</v>
+        <v>87.22982025146484</v>
       </c>
       <c r="K42" t="n">
-        <v>47.18294143676758</v>
+        <v>45.46961212158203</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>102.7639694213867</v>
+        <v>104.1748733520508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.22325134277344</v>
+        <v>37.15770721435547</v>
       </c>
       <c r="J43" t="n">
-        <v>107.7278442382812</v>
+        <v>108.281494140625</v>
       </c>
       <c r="K43" t="n">
-        <v>48.65028762817383</v>
+        <v>47.08662796020508</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>109.5073699951172</v>
+        <v>109.5871124267578</v>
       </c>
       <c r="I44" t="n">
-        <v>34.16993713378906</v>
+        <v>34.39061737060547</v>
       </c>
       <c r="J44" t="n">
-        <v>133.3321990966797</v>
+        <v>132.1411437988281</v>
       </c>
       <c r="K44" t="n">
-        <v>51.39777755737305</v>
+        <v>51.53978729248047</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>115.8076934814453</v>
+        <v>117.0849761962891</v>
       </c>
       <c r="I45" t="n">
-        <v>33.29545211791992</v>
+        <v>33.34257125854492</v>
       </c>
       <c r="J45" t="n">
-        <v>165.0751342773438</v>
+        <v>165.3280944824219</v>
       </c>
       <c r="K45" t="n">
-        <v>65.29312133789062</v>
+        <v>68.73609161376953</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>124.0506134033203</v>
+        <v>122.7889556884766</v>
       </c>
       <c r="I46" t="n">
-        <v>31.58661651611328</v>
+        <v>32.70680999755859</v>
       </c>
       <c r="J46" t="n">
-        <v>227.99072265625</v>
+        <v>225.6057281494141</v>
       </c>
       <c r="K46" t="n">
-        <v>119.765983581543</v>
+        <v>111.8957443237305</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>131.6404418945312</v>
+        <v>131.7931671142578</v>
       </c>
       <c r="I47" t="n">
-        <v>31.69956970214844</v>
+        <v>33.0441780090332</v>
       </c>
       <c r="J47" t="n">
-        <v>337.3269653320312</v>
+        <v>331.0353088378906</v>
       </c>
       <c r="K47" t="n">
-        <v>190.2342681884766</v>
+        <v>182.9951934814453</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>138.8343200683594</v>
+        <v>141.0443725585938</v>
       </c>
       <c r="I48" t="n">
-        <v>32.59955215454102</v>
+        <v>32.30503463745117</v>
       </c>
       <c r="J48" t="n">
-        <v>530.6865234375</v>
+        <v>533.7310180664062</v>
       </c>
       <c r="K48" t="n">
-        <v>249.8167724609375</v>
+        <v>252.3531036376953</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>197.8392791748047</v>
+        <v>198.1475524902344</v>
       </c>
       <c r="I49" t="n">
-        <v>55.08212661743164</v>
+        <v>54.61066055297852</v>
       </c>
       <c r="J49" t="n">
-        <v>591.3186645507812</v>
+        <v>594.0043334960938</v>
       </c>
       <c r="K49" t="n">
-        <v>252.6813201904297</v>
+        <v>248.8047637939453</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>94.08869171142578</v>
+        <v>95.28779602050781</v>
       </c>
       <c r="I50" t="n">
-        <v>38.631103515625</v>
+        <v>38.89035415649414</v>
       </c>
       <c r="J50" t="n">
-        <v>52.59297180175781</v>
+        <v>53.08014297485352</v>
       </c>
       <c r="K50" t="n">
-        <v>44.24913024902344</v>
+        <v>43.08396530151367</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>99.72000885009766</v>
+        <v>99.45268249511719</v>
       </c>
       <c r="I51" t="n">
-        <v>37.1656608581543</v>
+        <v>37.20298767089844</v>
       </c>
       <c r="J51" t="n">
-        <v>67.10169219970703</v>
+        <v>67.81908416748047</v>
       </c>
       <c r="K51" t="n">
-        <v>42.56582641601562</v>
+        <v>43.09540176391602</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>104.4701080322266</v>
+        <v>104.1996383666992</v>
       </c>
       <c r="I52" t="n">
-        <v>36.62438583374023</v>
+        <v>36.89527893066406</v>
       </c>
       <c r="J52" t="n">
-        <v>79.51478576660156</v>
+        <v>80.02030181884766</v>
       </c>
       <c r="K52" t="n">
-        <v>42.55865859985352</v>
+        <v>43.24557876586914</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>108.557991027832</v>
+        <v>108.4699478149414</v>
       </c>
       <c r="I53" t="n">
-        <v>35.71990585327148</v>
+        <v>35.1171875</v>
       </c>
       <c r="J53" t="n">
-        <v>99.17670440673828</v>
+        <v>99.36991882324219</v>
       </c>
       <c r="K53" t="n">
-        <v>45.26908111572266</v>
+        <v>44.15324020385742</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>114.3970947265625</v>
+        <v>113.0473861694336</v>
       </c>
       <c r="I54" t="n">
-        <v>35.25939559936523</v>
+        <v>34.8602180480957</v>
       </c>
       <c r="J54" t="n">
-        <v>120.3134765625</v>
+        <v>121.3992462158203</v>
       </c>
       <c r="K54" t="n">
-        <v>48.16759872436523</v>
+        <v>48.08524703979492</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>120.6078643798828</v>
+        <v>122.0364685058594</v>
       </c>
       <c r="I55" t="n">
-        <v>33.48487091064453</v>
+        <v>33.19530868530273</v>
       </c>
       <c r="J55" t="n">
-        <v>138.3305053710938</v>
+        <v>136.6737670898438</v>
       </c>
       <c r="K55" t="n">
-        <v>49.74264144897461</v>
+        <v>51.35475921630859</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>128.2426300048828</v>
+        <v>129.7690277099609</v>
       </c>
       <c r="I56" t="n">
-        <v>31.68664360046387</v>
+        <v>32.49705123901367</v>
       </c>
       <c r="J56" t="n">
-        <v>161.1460418701172</v>
+        <v>161.9357452392578</v>
       </c>
       <c r="K56" t="n">
-        <v>67.57977294921875</v>
+        <v>68.72216033935547</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>136.4908142089844</v>
+        <v>137.8674011230469</v>
       </c>
       <c r="I57" t="n">
-        <v>32.753662109375</v>
+        <v>32.8510856628418</v>
       </c>
       <c r="J57" t="n">
-        <v>338.4450073242188</v>
+        <v>334.1641540527344</v>
       </c>
       <c r="K57" t="n">
-        <v>198.0483245849609</v>
+        <v>192.7393035888672</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>199.1838836669922</v>
+        <v>194.0954437255859</v>
       </c>
       <c r="I58" t="n">
-        <v>56.18274688720703</v>
+        <v>54.08130645751953</v>
       </c>
       <c r="J58" t="n">
-        <v>504.2042846679688</v>
+        <v>505.5824584960938</v>
       </c>
       <c r="K58" t="n">
-        <v>249.6324310302734</v>
+        <v>248.825439453125</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>102.1817245483398</v>
+        <v>102.4412231445312</v>
       </c>
       <c r="I59" t="n">
-        <v>36.69232559204102</v>
+        <v>36.49562835693359</v>
       </c>
       <c r="J59" t="n">
-        <v>37.75665664672852</v>
+        <v>38.89770126342773</v>
       </c>
       <c r="K59" t="n">
-        <v>43.49024200439453</v>
+        <v>44.16593170166016</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>105.0712203979492</v>
+        <v>102.4197692871094</v>
       </c>
       <c r="I60" t="n">
-        <v>36.10394287109375</v>
+        <v>35.37732696533203</v>
       </c>
       <c r="J60" t="n">
-        <v>49.35748291015625</v>
+        <v>47.35746002197266</v>
       </c>
       <c r="K60" t="n">
-        <v>45.03043746948242</v>
+        <v>45.08140182495117</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>106.9092330932617</v>
+        <v>108.2625045776367</v>
       </c>
       <c r="I61" t="n">
-        <v>35.89054489135742</v>
+        <v>35.77042007446289</v>
       </c>
       <c r="J61" t="n">
-        <v>69.87257385253906</v>
+        <v>69.31267547607422</v>
       </c>
       <c r="K61" t="n">
-        <v>46.11134719848633</v>
+        <v>45.90618515014648</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>113.3756256103516</v>
+        <v>113.0364074707031</v>
       </c>
       <c r="I62" t="n">
-        <v>34.18567657470703</v>
+        <v>35.41458892822266</v>
       </c>
       <c r="J62" t="n">
-        <v>85.02638244628906</v>
+        <v>83.67771148681641</v>
       </c>
       <c r="K62" t="n">
-        <v>49.08358764648438</v>
+        <v>47.72114562988281</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>120.4103775024414</v>
+        <v>119.5076446533203</v>
       </c>
       <c r="I63" t="n">
-        <v>33.97590637207031</v>
+        <v>34.64076232910156</v>
       </c>
       <c r="J63" t="n">
-        <v>100.6884155273438</v>
+        <v>101.9384841918945</v>
       </c>
       <c r="K63" t="n">
-        <v>46.44940567016602</v>
+        <v>46.35490036010742</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>128.3719787597656</v>
+        <v>126.2348022460938</v>
       </c>
       <c r="I64" t="n">
-        <v>32.31623458862305</v>
+        <v>32.56180953979492</v>
       </c>
       <c r="J64" t="n">
-        <v>119.7925415039062</v>
+        <v>119.0677871704102</v>
       </c>
       <c r="K64" t="n">
-        <v>50.08590698242188</v>
+        <v>46.94148254394531</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>136.5157775878906</v>
+        <v>135.8945617675781</v>
       </c>
       <c r="I65" t="n">
-        <v>32.4376335144043</v>
+        <v>33.37503051757812</v>
       </c>
       <c r="J65" t="n">
-        <v>166.2711029052734</v>
+        <v>165.6845703125</v>
       </c>
       <c r="K65" t="n">
-        <v>98.36209106445312</v>
+        <v>98.40371704101562</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>111.2894515991211</v>
+        <v>109.8727874755859</v>
       </c>
       <c r="I66" t="n">
-        <v>35.83821105957031</v>
+        <v>34.94262313842773</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2774904072284698</v>
+        <v>2.669658660888672</v>
       </c>
       <c r="K66" t="n">
-        <v>53.11002349853516</v>
+        <v>51.68515396118164</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>113.0118865966797</v>
+        <v>111.1476593017578</v>
       </c>
       <c r="I67" t="n">
-        <v>35.32876205444336</v>
+        <v>35.21691513061523</v>
       </c>
       <c r="J67" t="n">
-        <v>19.60627365112305</v>
+        <v>19.09722328186035</v>
       </c>
       <c r="K67" t="n">
-        <v>57.44183731079102</v>
+        <v>56.298583984375</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>115.5996780395508</v>
+        <v>116.1188049316406</v>
       </c>
       <c r="I68" t="n">
-        <v>35.11323547363281</v>
+        <v>34.97903823852539</v>
       </c>
       <c r="J68" t="n">
-        <v>43.5309944152832</v>
+        <v>42.99305725097656</v>
       </c>
       <c r="K68" t="n">
-        <v>55.1658935546875</v>
+        <v>55.75827026367188</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>119.6673965454102</v>
+        <v>119.6355972290039</v>
       </c>
       <c r="I69" t="n">
-        <v>34.67095184326172</v>
+        <v>33.02304458618164</v>
       </c>
       <c r="J69" t="n">
-        <v>68.33840179443359</v>
+        <v>71.88797760009766</v>
       </c>
       <c r="K69" t="n">
-        <v>54.79004669189453</v>
+        <v>53.11046600341797</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>126.1433334350586</v>
+        <v>126.6890487670898</v>
       </c>
       <c r="I70" t="n">
-        <v>33.60776901245117</v>
+        <v>33.91110229492188</v>
       </c>
       <c r="J70" t="n">
-        <v>92.87453460693359</v>
+        <v>92.92827606201172</v>
       </c>
       <c r="K70" t="n">
-        <v>50.51351928710938</v>
+        <v>52.75164031982422</v>
       </c>
     </row>
   </sheetData>
